--- a/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1042,6 +1042,5781 @@
         <v>120</v>
       </c>
     </row>
+    <row r="17">
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C17" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G17" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G18" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G19" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D21" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E21" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G21" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D23" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E23" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F23" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G23" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F24" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G133" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G144" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E149" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E151" s="7" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G151" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G152" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G153" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G155" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G157" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E161" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C163" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E163" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G164" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B165" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C165" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E165" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F165" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G165" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F166" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G166" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C167" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D167" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E167" s="7" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F167" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G168" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C169" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E169" s="7" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F169" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G169" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G170" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B171" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C171" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D171" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E171" s="7" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F171" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G171" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G172" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C173" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E173" s="7" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F173" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G173" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G174" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C175" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E175" s="7" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F175" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G175" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E177" s="7" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F177" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G177" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G178" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B179" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C179" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E179" s="7" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F179" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G179" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G180" s="5" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C181" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E181" s="7" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F181" s="8" t="inlineStr">
+        <is>
+          <t>12:30:00</t>
+        </is>
+      </c>
+      <c r="G181" s="9" t="n">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E403D62-1330-412D-8300-ECF28E3B9CE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEA9263-42B5-46FA-A851-98B42AF8A50E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General_&amp;_Special_Surgery_2" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,7 @@
   <dimension ref="A1:G181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -984,2762 +984,2762 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="6" t="s">
+      <c r="A17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="9">
+      <c r="F17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="2" t="s">
+      <c r="A18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="6" t="s">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="9">
+      <c r="F19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="2" t="s">
+      <c r="A20" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="E20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="6" t="s">
+      <c r="A21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="9">
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="2" t="s">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="E22" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="6" t="s">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9">
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="A24" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="E24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="9">
+      <c r="E25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="2" t="s">
+      <c r="A26" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="5">
+      <c r="E26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="6" t="s">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="E27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="A28" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="6" t="s">
+      <c r="F58" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="7" t="s">
+      <c r="E59" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="2" t="s">
+      <c r="F59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E60" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="6" t="s">
+      <c r="F60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="9">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E31" s="7" t="s">
+      <c r="E61" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E46" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E56" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="9">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="5">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="9">
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="A62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E62" s="3" t="s">
+      <c r="E62" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="5">
+      <c r="F62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="7" t="s">
+      <c r="E63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F63" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="9">
+      <c r="F63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="A64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E64" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="5">
+      <c r="F64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="7" t="s">
+      <c r="E65" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="9">
+      <c r="F65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="A66" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E66" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="5">
+      <c r="F66" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="A67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="7" t="s">
+      <c r="E67" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="9">
+      <c r="F67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="A68" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C68" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E68" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="5">
+      <c r="F68" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C69" s="6" t="s">
+      <c r="A69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F69" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="9">
+      <c r="F69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="A70" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E70" s="3" t="s">
+      <c r="E70" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F70" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="5">
+      <c r="F70" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C71" s="6" t="s">
+      <c r="A71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E71" s="7" t="s">
+      <c r="E71" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="9">
+      <c r="F71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="A72" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E72" s="3" t="s">
+      <c r="E72" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="5">
+      <c r="F72" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="6" t="s">
+      <c r="A73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E73" s="7" t="s">
+      <c r="E73" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F73" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="9">
+      <c r="F73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="A74" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E74" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F74" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="5">
+      <c r="F74" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="6" t="s">
+      <c r="A75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="7" t="s">
+      <c r="E75" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F75" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="9">
+      <c r="F75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C76" s="2" t="s">
+      <c r="A76" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F76" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="5">
+      <c r="F76" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D77" s="6" t="s">
+      <c r="A77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E77" s="7" t="s">
+      <c r="E77" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F77" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="9">
+      <c r="F77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D78" s="2" t="s">
+      <c r="A78" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="E78" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F78" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="5">
+      <c r="F78" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D79" s="6" t="s">
+      <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E79" s="7" t="s">
+      <c r="E79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="9">
+      <c r="F79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D80" s="2" t="s">
+      <c r="A80" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F80" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="5">
+      <c r="F80" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D81" s="6" t="s">
+      <c r="A81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="7" t="s">
+      <c r="E81" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="9">
+      <c r="F81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
+      <c r="A82" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="3" t="s">
+      <c r="E82" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F82" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="5">
+      <c r="F82" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D83" s="6" t="s">
+      <c r="A83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E83" s="7" t="s">
+      <c r="E83" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="9">
+      <c r="F83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D84" s="2" t="s">
+      <c r="A84" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E84" s="3" t="s">
+      <c r="E84" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F84" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="5">
+      <c r="F84" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D85" s="6" t="s">
+      <c r="A85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E85" s="7" t="s">
+      <c r="E85" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="F85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="A86" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E86" s="3" t="s">
+      <c r="E86" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F86" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="5">
+      <c r="F86" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="6" t="s">
+      <c r="A87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E87" s="7" t="s">
+      <c r="E87" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="F87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D88" s="2" t="s">
+      <c r="A88" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E88" s="3" t="s">
+      <c r="E88" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F88" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="5">
+      <c r="F88" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="6" t="s">
+      <c r="A89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E89" s="7" t="s">
+      <c r="E89" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F89" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="9">
+      <c r="F89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2" t="s">
+      <c r="A90" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E90" s="3" t="s">
+      <c r="E90" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F90" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="5">
+      <c r="F90" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="6" t="s">
+      <c r="A91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E91" s="7" t="s">
+      <c r="E91" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F91" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="9">
+      <c r="F91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
+      <c r="A92" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F92" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="5">
+      <c r="F92" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="6" t="s">
+      <c r="A93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E93" s="7" t="s">
+      <c r="E93" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F93" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="9">
+      <c r="F93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="A94" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D94" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E94" s="3" t="s">
+      <c r="E94" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="5">
+      <c r="F94" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="6" t="s">
+      <c r="A95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E95" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="9">
+      <c r="E95" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
+      <c r="A96" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C96" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F96" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="5">
+      <c r="E96" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D97" s="6" t="s">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E97" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="9">
+      <c r="E97" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
+      <c r="A98" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E98" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="5">
+      <c r="E98" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B99" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="6" t="s">
+      <c r="A99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E99" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="9">
+      <c r="E99" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="A100" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C100" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F100" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="5">
+      <c r="E100" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B101" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="6" t="s">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E101" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="9">
+      <c r="E101" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="2" t="s">
+      <c r="A102" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C102" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E102" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="5">
+      <c r="E102" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B103" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D103" s="6" t="s">
+      <c r="A103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E103" s="7" t="s">
+      <c r="E103" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F103" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="9">
+      <c r="F103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="A104" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C104" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E104" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="5">
+      <c r="F104" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B105" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C105" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="6" t="s">
+      <c r="A105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E105" s="7" t="s">
+      <c r="E105" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F105" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="9">
+      <c r="F105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="A106" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E106" s="3" t="s">
+      <c r="E106" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F106" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="5">
+      <c r="F106" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C107" s="6" t="s">
+      <c r="A107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E107" s="7" t="s">
+      <c r="E107" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F107" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="9">
+      <c r="F107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C108" s="2" t="s">
+      <c r="A108" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E108" s="3" t="s">
+      <c r="E108" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F108" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="5">
+      <c r="F108" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C109" s="6" t="s">
+      <c r="A109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E109" s="7" t="s">
+      <c r="E109" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F109" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="9">
+      <c r="F109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C110" s="2" t="s">
+      <c r="A110" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C110" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="5">
+      <c r="E110" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C111" s="6" t="s">
+      <c r="A111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="9">
+      <c r="E111" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C112" s="2" t="s">
+      <c r="A112" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C112" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E112" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="5">
+      <c r="E112" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C113" s="6" t="s">
+      <c r="A113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E113" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="9">
+      <c r="E113" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C114" s="2" t="s">
+      <c r="A114" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="5">
+      <c r="E114" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C115" s="6" t="s">
+      <c r="A115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="9">
+      <c r="E115" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C116" s="2" t="s">
+      <c r="A116" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E116" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="5">
+      <c r="E116" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C117" s="6" t="s">
+      <c r="A117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E117" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="9">
+      <c r="E117" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C118" s="2" t="s">
+      <c r="A118" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C118" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D118" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E118" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="5">
+      <c r="E118" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B119" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C119" s="6" t="s">
+      <c r="A119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E119" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="9">
+      <c r="E119" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C120" s="2" t="s">
+      <c r="A120" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D120" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="5">
+      <c r="E120" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B121" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C121" s="6" t="s">
+      <c r="A121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E121" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F121" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="9">
+      <c r="E121" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="2" t="s">
+      <c r="A122" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E122" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F122" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="5">
+      <c r="F122" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B123" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D123" s="6" t="s">
+      <c r="A123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E123" s="7" t="s">
+      <c r="E123" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F123" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="9">
+      <c r="F123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D124" s="2" t="s">
+      <c r="A124" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C124" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D124" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E124" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G124" s="5">
+      <c r="F124" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G124" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B125" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D125" s="6" t="s">
+      <c r="A125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D125" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G125" s="9">
+      <c r="E125" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="2" t="s">
+      <c r="A126" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C126" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D126" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E126" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="5">
+      <c r="E126" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C127" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="6" t="s">
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="9">
+      <c r="E127" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G127" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="2" t="s">
+      <c r="A128" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C128" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E128" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G128" s="5">
+      <c r="E128" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G128" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B129" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="6" t="s">
+      <c r="A129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D129" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E129" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G129" s="9">
+      <c r="E129" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G129" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="2" t="s">
+      <c r="A130" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C130" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E130" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G130" s="5">
+      <c r="E130" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B131" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C131" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D131" s="6" t="s">
+      <c r="A131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D131" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E131" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F131" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="9">
+      <c r="E131" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G131" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D132" s="2" t="s">
+      <c r="A132" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D132" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G132" s="5">
+      <c r="E132" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G132" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A133" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D133" s="6" t="s">
+      <c r="A133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D133" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E133" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="9">
+      <c r="E133" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D134" s="2" t="s">
+      <c r="A134" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C134" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D134" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G134" s="5">
+      <c r="E134" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" s="9">
         <v>120</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B135" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C135" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D135" s="6" t="s">
+      <c r="A135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D135" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E135" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F135" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G135" s="9">
+      <c r="E135" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G135" s="5">
         <v>120</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D136" s="2" t="s">
+      <c r="A136" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C136" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E136" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G136" s="5">
+      <c r="E136" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G136" s="9">
         <v>120</v>
       </c>
     </row>
@@ -3748,7 +3748,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>9</v>
@@ -3771,7 +3771,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3794,7 +3794,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>9</v>
@@ -3817,7 +3817,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3840,7 +3840,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>9</v>
@@ -3863,7 +3863,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3886,7 +3886,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>9</v>
@@ -3909,7 +3909,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3932,7 +3932,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>9</v>
@@ -3955,7 +3955,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -3978,7 +3978,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>9</v>
@@ -4001,7 +4001,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4024,7 +4024,7 @@
         <v>7</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>9</v>
@@ -4047,7 +4047,7 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>9</v>
@@ -4070,7 +4070,7 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>9</v>
@@ -4093,7 +4093,7 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
@@ -4116,7 +4116,7 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>9</v>
@@ -4139,7 +4139,7 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
@@ -4162,7 +4162,7 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>9</v>
@@ -4185,7 +4185,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4208,7 +4208,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>9</v>
@@ -4231,7 +4231,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4254,7 +4254,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>9</v>
@@ -4277,7 +4277,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4300,7 +4300,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>9</v>
@@ -4323,7 +4323,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4346,7 +4346,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>9</v>
@@ -4369,7 +4369,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4392,7 +4392,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>9</v>
@@ -4415,7 +4415,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4438,7 +4438,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>9</v>
@@ -4461,7 +4461,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4484,7 +4484,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>9</v>
@@ -4507,7 +4507,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4530,7 +4530,7 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>9</v>
@@ -4553,7 +4553,7 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>9</v>
@@ -4576,7 +4576,7 @@
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>9</v>
@@ -4599,7 +4599,7 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
@@ -4622,7 +4622,7 @@
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>9</v>
@@ -4645,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>9</v>
@@ -4668,7 +4668,7 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>9</v>
@@ -4691,7 +4691,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4714,7 +4714,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>9</v>
@@ -4737,7 +4737,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4760,7 +4760,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>9</v>

--- a/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,16 +540,16 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G2" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -575,16 +575,16 @@
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G3" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -595,7 +595,7 @@
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
@@ -605,21 +605,21 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>09/12/2025</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G4" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -630,7 +630,7 @@
       </c>
       <c r="B5" s="6" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C5" s="6" t="inlineStr">
@@ -640,21 +640,21 @@
       </c>
       <c r="D5" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>14/12/2025</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G5" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -665,7 +665,7 @@
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
@@ -675,21 +675,21 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>15/12/2025</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G6" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
       </c>
       <c r="B7" s="6" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C7" s="6" t="inlineStr">
@@ -710,21 +710,21 @@
       </c>
       <c r="D7" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>21/12/2025</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G7" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -735,7 +735,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
@@ -745,21 +745,21 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>22/12/2025</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -770,7 +770,7 @@
       </c>
       <c r="B9" s="6" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C9" s="6" t="inlineStr">
@@ -780,21 +780,21 @@
       </c>
       <c r="D9" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>28/12/2025</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G9" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -805,7 +805,7 @@
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
@@ -815,21 +815,21 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G10" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -840,7 +840,7 @@
       </c>
       <c r="B11" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C11" s="6" t="inlineStr">
@@ -850,21 +850,21 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G11" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12">
@@ -875,7 +875,7 @@
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
@@ -885,21 +885,21 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G12" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
@@ -910,7 +910,7 @@
       </c>
       <c r="B13" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C13" s="6" t="inlineStr">
@@ -920,21 +920,21 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G13" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
@@ -945,7 +945,7 @@
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
@@ -955,21 +955,21 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G14" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15">
@@ -980,7 +980,7 @@
       </c>
       <c r="B15" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C15" s="6" t="inlineStr">
@@ -990,21 +990,21 @@
       </c>
       <c r="D15" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>14</t>
         </is>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G15" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
@@ -1025,21 +1025,21 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B17" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C17" s="6" t="inlineStr">
@@ -1060,21 +1060,21 @@
       </c>
       <c r="D17" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>16</t>
         </is>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>06/12/2025</t>
         </is>
       </c>
       <c r="F17" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G17" s="9" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18">
@@ -1085,7 +1085,7 @@
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1109,7 +1109,7 @@
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19">
@@ -1120,7 +1120,7 @@
       </c>
       <c r="B19" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C19" s="6" t="inlineStr">
@@ -1130,21 +1130,21 @@
       </c>
       <c r="D19" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>20/12/2025</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G19" s="9" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
@@ -1165,12 +1165,12 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>27/12/2025</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
@@ -1179,7 +1179,7 @@
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr">
@@ -1200,21 +1200,21 @@
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G21" s="9" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22">
@@ -1225,7 +1225,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1235,12 +1235,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="G22" s="5" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-1</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
@@ -1270,21 +1270,21 @@
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
         <is>
-          <t>10:15:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G23" s="9" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="24">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>B1-9</t>
+          <t>B1-10</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
@@ -1310,16 +1310,16 @@
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
@@ -1330,31 +1330,8431 @@
       </c>
       <c r="B25" s="6" t="inlineStr">
         <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E25" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F25" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G25" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G26" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E27" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F27" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G27" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G28" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C29" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E29" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F29" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G29" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G30" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E31" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F31" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G31" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G32" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D33" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E33" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F33" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G33" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G34" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C35" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E35" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F35" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G35" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G36" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E37" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G37" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G38" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E39" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F39" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G39" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E40" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G40" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D41" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E41" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F41" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G41" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E42" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G42" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D43" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E43" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F43" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G43" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E44" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F44" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G44" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>B1-10</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D45" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E45" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F45" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G45" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E46" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F46" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G46" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E47" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F47" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G47" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E48" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F48" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G48" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E49" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F49" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G49" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E50" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G50" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C51" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E51" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G51" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E52" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F52" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G52" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C53" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E53" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G53" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E54" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F54" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G54" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E55" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F55" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G55" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G56" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C57" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E57" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G57" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E58" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F58" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G58" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E59" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F59" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G59" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E60" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F60" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G60" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C61" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D61" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E61" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F61" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G61" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E62" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F62" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G62" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C63" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D63" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E63" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F63" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G63" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E64" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F64" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G64" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D65" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E65" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F65" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G65" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E66" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F66" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G66" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>B1-11</t>
+        </is>
+      </c>
+      <c r="C67" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D67" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E67" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F67" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G67" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E68" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F68" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G68" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D69" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E69" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F69" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G69" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E70" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F70" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G70" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E71" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F71" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G71" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E72" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F72" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G72" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C73" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E73" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G73" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E74" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G74" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C75" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D75" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E75" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F75" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G75" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E76" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G76" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C77" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D77" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E77" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G77" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C78" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E78" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F78" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G78" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C79" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E79" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F79" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G79" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C80" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E80" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F80" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G80" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D81" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E81" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F81" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G81" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C82" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E82" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F82" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G82" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C83" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D83" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E83" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F83" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G83" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C84" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E84" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F84" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G84" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C85" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D85" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E85" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F85" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G85" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C86" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E86" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F86" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G86" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D87" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E87" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F87" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G87" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C88" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E88" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F88" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G88" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>B1-12</t>
+        </is>
+      </c>
+      <c r="C89" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D89" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E89" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F89" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G89" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C90" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E90" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F90" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G90" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D91" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E91" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F91" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G91" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C92" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E92" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F92" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G92" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C93" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E93" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F93" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G93" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E94" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F94" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G94" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C95" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D95" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E95" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G95" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C96" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E96" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F96" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G96" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D97" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E97" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G97" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F98" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G98" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C99" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D99" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E99" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F99" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G99" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E100" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F100" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G100" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B101" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C101" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D101" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E101" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F101" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G101" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C102" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E102" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F102" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G102" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D103" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E103" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F103" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G103" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C104" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E104" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F104" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G104" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B105" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C105" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D105" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E105" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F105" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G105" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E106" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F106" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G106" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D107" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E107" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F107" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G107" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E108" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F108" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G108" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D109" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E109" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F109" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G109" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E110" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F110" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G110" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B111" s="6" t="inlineStr">
+        <is>
+          <t>B1-2</t>
+        </is>
+      </c>
+      <c r="C111" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D111" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E111" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F111" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G111" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C112" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E112" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F112" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G112" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B113" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C113" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E113" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F113" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G113" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C114" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E114" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G114" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B115" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C115" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D115" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E115" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G115" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C116" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E116" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F116" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G116" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B117" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C117" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D117" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E117" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F117" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G117" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C118" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E118" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G118" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E119" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C120" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E120" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G120" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B121" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C121" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E121" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F121" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C122" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E122" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F122" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G122" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B123" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C123" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D123" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E123" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F123" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G123" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E124" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F124" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G124" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D125" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E125" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F125" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G125" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E126" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F126" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G126" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B127" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C127" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D127" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E127" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F127" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G127" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C128" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E128" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F128" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G128" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B129" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C129" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D129" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E129" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F129" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G129" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C130" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E130" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F130" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G130" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B131" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C131" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D131" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E131" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F131" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G131" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C132" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E132" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F132" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G132" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B133" s="6" t="inlineStr">
+        <is>
+          <t>B1-3</t>
+        </is>
+      </c>
+      <c r="C133" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E133" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G133" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C134" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E134" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G134" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E135" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F135" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G135" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F136" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G136" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B137" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C137" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D137" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E137" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F137" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G137" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C138" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E138" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F138" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G138" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B139" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C139" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E139" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F139" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G139" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E140" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G140" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E141" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G141" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C142" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E142" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F142" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G142" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B143" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C143" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E143" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F143" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G143" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C144" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E144" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F144" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G144" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D145" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E145" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F145" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G145" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C146" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D146" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E146" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F146" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G146" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B147" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C147" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D147" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E147" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F147" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G147" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F148" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G148" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D149" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E149" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F149" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G149" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C150" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D150" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F150" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G150" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B151" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C151" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E151" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F151" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G151" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G152" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B153" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C153" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E153" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G153" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C154" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E154" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F154" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G154" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B155" s="6" t="inlineStr">
+        <is>
+          <t>B1-4</t>
+        </is>
+      </c>
+      <c r="C155" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E155" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F155" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G155" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E156" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F156" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G156" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B157" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C157" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D157" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E157" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F157" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G157" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F158" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G158" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B159" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C159" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E159" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F159" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G159" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F160" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G160" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B161" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C161" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E161" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F161" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G161" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E162" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G162" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B163" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C163" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E163" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G163" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C164" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E164" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F164" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G164" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B165" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C165" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E165" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F165" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G165" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F166" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G166" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B167" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C167" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D167" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E167" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F167" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G167" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F168" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G168" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B169" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C169" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D169" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E169" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F169" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G169" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C170" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E170" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F170" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G170" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B171" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C171" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D171" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E171" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F171" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G171" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C172" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G172" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B173" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C173" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E173" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F173" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G173" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E174" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F174" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G174" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B175" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C175" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E175" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F175" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G175" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E176" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F176" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G176" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B177" s="6" t="inlineStr">
+        <is>
+          <t>B1-5</t>
+        </is>
+      </c>
+      <c r="C177" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D177" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E177" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F177" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G177" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F178" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G178" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B179" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C179" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D179" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E179" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F179" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G179" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F180" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G180" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B181" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C181" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E181" s="7" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F181" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G181" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr">
+        <is>
+          <t>15/12/2025</t>
+        </is>
+      </c>
+      <c r="F182" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G182" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B183" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C183" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E183" s="7" t="inlineStr">
+        <is>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F183" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G183" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C184" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr">
+        <is>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G184" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B185" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C185" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D185" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E185" s="7" t="inlineStr">
+        <is>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F185" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G185" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr">
+        <is>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F186" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G186" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B187" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C187" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D187" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E187" s="7" t="inlineStr">
+        <is>
+          <t>04/01/2026</t>
+        </is>
+      </c>
+      <c r="F187" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G187" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E188" s="3" t="inlineStr">
+        <is>
+          <t>05/01/2026</t>
+        </is>
+      </c>
+      <c r="F188" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G188" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B189" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C189" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D189" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E189" s="7" t="inlineStr">
+        <is>
+          <t>13/01/2026</t>
+        </is>
+      </c>
+      <c r="F189" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G189" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C190" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr">
+        <is>
+          <t>14/01/2026</t>
+        </is>
+      </c>
+      <c r="F190" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G190" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B191" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C191" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D191" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E191" s="7" t="inlineStr">
+        <is>
+          <t>20/01/2026</t>
+        </is>
+      </c>
+      <c r="F191" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G191" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E192" s="3" t="inlineStr">
+        <is>
+          <t>21/01/2026</t>
+        </is>
+      </c>
+      <c r="F192" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G192" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B193" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C193" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E193" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F193" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G193" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C194" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F194" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G194" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B195" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C195" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E195" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F195" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G195" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E196" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G196" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B197" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C197" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D197" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E197" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F197" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G197" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B198" s="2" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C198" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D198" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F198" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G198" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B199" s="6" t="inlineStr">
+        <is>
+          <t>B1-6</t>
+        </is>
+      </c>
+      <c r="C199" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D199" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E199" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F199" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G199" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F200" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G200" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B201" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C201" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D201" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E201" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F201" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G201" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E202" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F202" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G202" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B203" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C203" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D203" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E203" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F203" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G203" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F204" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G204" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B205" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C205" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D205" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E205" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F205" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G205" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B206" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C206" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G206" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B207" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C207" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D207" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E207" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F207" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G207" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F208" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G208" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B209" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C209" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D209" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E209" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F209" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G209" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G210" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B211" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C211" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D211" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E211" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F211" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G211" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E212" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F212" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G212" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B213" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C213" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D213" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E213" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F213" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G213" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E214" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F214" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G214" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B215" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C215" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D215" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E215" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F215" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G215" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F216" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G216" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B217" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C217" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D217" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E217" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F217" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G217" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B218" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C218" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D218" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F218" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G218" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B219" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C219" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D219" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E219" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F219" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G219" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B220" s="2" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C220" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D220" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F220" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G220" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B221" s="6" t="inlineStr">
+        <is>
+          <t>B1-7</t>
+        </is>
+      </c>
+      <c r="C221" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D221" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E221" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F221" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G221" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F222" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G222" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B223" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C223" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D223" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E223" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F223" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G223" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B224" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C224" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D224" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F224" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G224" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B225" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C225" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D225" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E225" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F225" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G225" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F226" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G226" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B227" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C227" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D227" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E227" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F227" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G227" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B228" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C228" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F228" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G228" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B229" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C229" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D229" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E229" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F229" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G229" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B230" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C230" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D230" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F230" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G230" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B231" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C231" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D231" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E231" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F231" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G231" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F232" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G232" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B233" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C233" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D233" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E233" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F233" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G233" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F234" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G234" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B235" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C235" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D235" s="6" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E235" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F235" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G235" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G236" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B237" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C237" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D237" s="6" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E237" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F237" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G237" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B238" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C238" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D238" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="inlineStr">
+        <is>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F238" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G238" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B239" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C239" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D239" s="6" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E239" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F239" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G239" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B240" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C240" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D240" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E240" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F240" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G240" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B241" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C241" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D241" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E241" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F241" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G241" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F242" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G242" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B243" s="6" t="inlineStr">
+        <is>
+          <t>B1-8</t>
+        </is>
+      </c>
+      <c r="C243" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D243" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E243" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F243" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G243" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
           <t>B1-9</t>
         </is>
       </c>
-      <c r="C25" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E25" s="7" t="inlineStr">
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr">
+        <is>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F244" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G244" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B245" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C245" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D245" s="6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E245" s="7" t="inlineStr">
+        <is>
+          <t>08/12/2025</t>
+        </is>
+      </c>
+      <c r="F245" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G245" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
+      <c r="F246" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G246" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B247" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C247" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D247" s="6" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E247" s="7" t="inlineStr">
+        <is>
+          <t>16/12/2025</t>
+        </is>
+      </c>
+      <c r="F247" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G247" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B248" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C248" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D248" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
+      <c r="F248" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G248" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B249" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C249" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D249" s="6" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E249" s="7" t="inlineStr">
+        <is>
+          <t>23/12/2025</t>
+        </is>
+      </c>
+      <c r="F249" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G249" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E250" s="3" t="inlineStr">
+        <is>
+          <t>24/12/2025</t>
+        </is>
+      </c>
+      <c r="F250" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G250" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B251" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C251" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D251" s="6" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E251" s="7" t="inlineStr">
+        <is>
+          <t>30/12/2025</t>
+        </is>
+      </c>
+      <c r="F251" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G251" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B252" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C252" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D252" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr">
+        <is>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F252" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G252" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B253" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C253" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D253" s="6" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E253" s="7" t="inlineStr">
+        <is>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F253" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G253" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E254" s="3" t="inlineStr">
+        <is>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F254" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G254" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B255" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C255" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D255" s="6" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E255" s="7" t="inlineStr">
+        <is>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F255" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G255" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E256" s="3" t="inlineStr">
+        <is>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F256" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G256" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B257" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C257" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D257" s="6" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="E257" s="7" t="inlineStr">
+        <is>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F257" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G257" s="9" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B258" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C258" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D258" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E258" s="3" t="inlineStr">
+        <is>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F258" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="G258" s="5" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B259" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C259" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D259" s="6" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E259" s="7" t="inlineStr">
+        <is>
+          <t>06/12/2025</t>
+        </is>
+      </c>
+      <c r="F259" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G259" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B260" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C260" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D260" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr">
         <is>
           <t>13/12/2025</t>
         </is>
       </c>
-      <c r="F25" s="8" t="inlineStr">
-        <is>
-          <t>10:15:00</t>
-        </is>
-      </c>
-      <c r="G25" s="9" t="n">
-        <v>90</v>
+      <c r="F260" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G260" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B261" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C261" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D261" s="6" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="E261" s="7" t="inlineStr">
+        <is>
+          <t>20/12/2025</t>
+        </is>
+      </c>
+      <c r="F261" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G261" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B262" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C262" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D262" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr">
+        <is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F262" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G262" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B263" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C263" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D263" s="6" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="E263" s="7" t="inlineStr">
+        <is>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F263" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G263" s="9" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="inlineStr">
+        <is>
+          <t>10/01/2026</t>
+        </is>
+      </c>
+      <c r="F264" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G264" s="5" t="n">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="6" t="inlineStr">
+        <is>
+          <t>Year 5</t>
+        </is>
+      </c>
+      <c r="B265" s="6" t="inlineStr">
+        <is>
+          <t>B1-9</t>
+        </is>
+      </c>
+      <c r="C265" s="6" t="inlineStr">
+        <is>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D265" s="6" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="E265" s="7" t="inlineStr">
+        <is>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F265" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="G265" s="9" t="n">
+        <v>360</v>
       </c>
     </row>
   </sheetData>

--- a/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D824D44A-6777-4614-B379-373D2156E27D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34AC971-5E9F-4F16-B9CA-A8E3426C4224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="80">
   <si>
     <t>Year</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>B1-9</t>
+  </si>
+  <si>
+    <t>Surgery Seminar/Slide</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -1036,7 +1039,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>41</v>
@@ -1058,8 +1061,8 @@
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>9</v>
+      <c r="C18" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>44</v>
@@ -1082,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>46</v>
@@ -1104,8 +1107,8 @@
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>9</v>
+      <c r="C20" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>48</v>
@@ -1128,7 +1131,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D21" s="6" t="s">
         <v>50</v>
@@ -1150,8 +1153,8 @@
       <c r="B22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>9</v>
+      <c r="C22" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>52</v>
@@ -1174,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D23" s="6" t="s">
         <v>54</v>
@@ -1542,7 +1545,7 @@
         <v>56</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>41</v>
@@ -1564,8 +1567,8 @@
       <c r="B40" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
+      <c r="C40" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>44</v>
@@ -1588,7 +1591,7 @@
         <v>56</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>46</v>
@@ -1610,8 +1613,8 @@
       <c r="B42" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
+      <c r="C42" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>48</v>
@@ -1634,7 +1637,7 @@
         <v>56</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>50</v>
@@ -1656,8 +1659,8 @@
       <c r="B44" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>9</v>
+      <c r="C44" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>52</v>
@@ -1680,7 +1683,7 @@
         <v>56</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>54</v>
@@ -2048,7 +2051,7 @@
         <v>69</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>41</v>
@@ -2070,8 +2073,8 @@
       <c r="B62" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>9</v>
+      <c r="C62" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>44</v>
@@ -2094,7 +2097,7 @@
         <v>69</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>46</v>
@@ -2116,8 +2119,8 @@
       <c r="B64" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>9</v>
+      <c r="C64" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>48</v>
@@ -2140,7 +2143,7 @@
         <v>69</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>50</v>
@@ -2162,8 +2165,8 @@
       <c r="B66" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>9</v>
+      <c r="C66" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>52</v>
@@ -2186,7 +2189,7 @@
         <v>69</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D67" s="6" t="s">
         <v>54</v>
@@ -2554,7 +2557,7 @@
         <v>70</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D83" s="6" t="s">
         <v>41</v>
@@ -2576,8 +2579,8 @@
       <c r="B84" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>9</v>
+      <c r="C84" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>44</v>
@@ -2600,7 +2603,7 @@
         <v>70</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D85" s="6" t="s">
         <v>46</v>
@@ -2622,8 +2625,8 @@
       <c r="B86" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
+      <c r="C86" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>48</v>
@@ -2646,7 +2649,7 @@
         <v>70</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D87" s="6" t="s">
         <v>50</v>
@@ -2668,8 +2671,8 @@
       <c r="B88" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C88" s="2" t="s">
-        <v>9</v>
+      <c r="C88" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>52</v>
@@ -2692,7 +2695,7 @@
         <v>70</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D89" s="6" t="s">
         <v>54</v>
@@ -3060,7 +3063,7 @@
         <v>71</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>41</v>
@@ -3082,8 +3085,8 @@
       <c r="B106" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>9</v>
+      <c r="C106" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>44</v>
@@ -3106,7 +3109,7 @@
         <v>71</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>46</v>
@@ -3128,8 +3131,8 @@
       <c r="B108" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C108" s="2" t="s">
-        <v>9</v>
+      <c r="C108" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>48</v>
@@ -3152,7 +3155,7 @@
         <v>71</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D109" s="6" t="s">
         <v>50</v>
@@ -3174,8 +3177,8 @@
       <c r="B110" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C110" s="2" t="s">
-        <v>9</v>
+      <c r="C110" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>52</v>
@@ -3198,7 +3201,7 @@
         <v>71</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>54</v>
@@ -3566,7 +3569,7 @@
         <v>72</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D127" s="6" t="s">
         <v>41</v>
@@ -3588,8 +3591,8 @@
       <c r="B128" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>9</v>
+      <c r="C128" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>44</v>
@@ -3612,7 +3615,7 @@
         <v>72</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D129" s="6" t="s">
         <v>46</v>
@@ -3634,8 +3637,8 @@
       <c r="B130" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>9</v>
+      <c r="C130" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>48</v>
@@ -3658,7 +3661,7 @@
         <v>72</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D131" s="6" t="s">
         <v>50</v>
@@ -3680,8 +3683,8 @@
       <c r="B132" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C132" s="2" t="s">
-        <v>9</v>
+      <c r="C132" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>52</v>
@@ -3704,7 +3707,7 @@
         <v>72</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D133" s="6" t="s">
         <v>54</v>
@@ -4072,7 +4075,7 @@
         <v>73</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D149" s="6" t="s">
         <v>41</v>
@@ -4094,8 +4097,8 @@
       <c r="B150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>9</v>
+      <c r="C150" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>44</v>
@@ -4118,7 +4121,7 @@
         <v>73</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D151" s="6" t="s">
         <v>46</v>
@@ -4140,8 +4143,8 @@
       <c r="B152" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C152" s="2" t="s">
-        <v>9</v>
+      <c r="C152" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>48</v>
@@ -4164,7 +4167,7 @@
         <v>73</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D153" s="6" t="s">
         <v>50</v>
@@ -4186,8 +4189,8 @@
       <c r="B154" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>9</v>
+      <c r="C154" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>52</v>
@@ -4210,7 +4213,7 @@
         <v>73</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D155" s="6" t="s">
         <v>54</v>
@@ -4578,7 +4581,7 @@
         <v>74</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D171" s="6" t="s">
         <v>41</v>
@@ -4600,8 +4603,8 @@
       <c r="B172" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C172" s="2" t="s">
-        <v>9</v>
+      <c r="C172" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>44</v>
@@ -4624,7 +4627,7 @@
         <v>74</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D173" s="6" t="s">
         <v>46</v>
@@ -4646,8 +4649,8 @@
       <c r="B174" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>9</v>
+      <c r="C174" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>48</v>
@@ -4670,7 +4673,7 @@
         <v>74</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D175" s="6" t="s">
         <v>50</v>
@@ -4692,8 +4695,8 @@
       <c r="B176" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C176" s="2" t="s">
-        <v>9</v>
+      <c r="C176" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>52</v>
@@ -4716,7 +4719,7 @@
         <v>74</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D177" s="6" t="s">
         <v>54</v>
@@ -5084,7 +5087,7 @@
         <v>75</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D193" s="6" t="s">
         <v>41</v>
@@ -5106,8 +5109,8 @@
       <c r="B194" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
+      <c r="C194" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>44</v>
@@ -5130,7 +5133,7 @@
         <v>75</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D195" s="6" t="s">
         <v>46</v>
@@ -5152,8 +5155,8 @@
       <c r="B196" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
+      <c r="C196" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>48</v>
@@ -5176,7 +5179,7 @@
         <v>75</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D197" s="6" t="s">
         <v>50</v>
@@ -5198,8 +5201,8 @@
       <c r="B198" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
+      <c r="C198" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>52</v>
@@ -5222,7 +5225,7 @@
         <v>75</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>54</v>
@@ -5590,7 +5593,7 @@
         <v>76</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D215" s="6" t="s">
         <v>41</v>
@@ -5612,8 +5615,8 @@
       <c r="B216" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C216" s="2" t="s">
-        <v>9</v>
+      <c r="C216" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>44</v>
@@ -5636,7 +5639,7 @@
         <v>76</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D217" s="6" t="s">
         <v>46</v>
@@ -5658,8 +5661,8 @@
       <c r="B218" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C218" s="2" t="s">
-        <v>9</v>
+      <c r="C218" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>48</v>
@@ -5682,7 +5685,7 @@
         <v>76</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D219" s="6" t="s">
         <v>50</v>
@@ -5704,8 +5707,8 @@
       <c r="B220" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C220" s="2" t="s">
-        <v>9</v>
+      <c r="C220" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>52</v>
@@ -5728,7 +5731,7 @@
         <v>76</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D221" s="6" t="s">
         <v>54</v>
@@ -6096,7 +6099,7 @@
         <v>77</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D237" s="6" t="s">
         <v>41</v>
@@ -6118,8 +6121,8 @@
       <c r="B238" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
+      <c r="C238" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>44</v>
@@ -6142,7 +6145,7 @@
         <v>77</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D239" s="6" t="s">
         <v>46</v>
@@ -6164,8 +6167,8 @@
       <c r="B240" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C240" s="2" t="s">
-        <v>9</v>
+      <c r="C240" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>48</v>
@@ -6188,7 +6191,7 @@
         <v>77</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D241" s="6" t="s">
         <v>50</v>
@@ -6210,8 +6213,8 @@
       <c r="B242" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C242" s="2" t="s">
-        <v>9</v>
+      <c r="C242" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>52</v>
@@ -6234,7 +6237,7 @@
         <v>77</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D243" s="6" t="s">
         <v>54</v>
@@ -6602,7 +6605,7 @@
         <v>78</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D259" s="6" t="s">
         <v>41</v>
@@ -6624,8 +6627,8 @@
       <c r="B260" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C260" s="2" t="s">
-        <v>9</v>
+      <c r="C260" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>44</v>
@@ -6648,7 +6651,7 @@
         <v>78</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D261" s="6" t="s">
         <v>46</v>
@@ -6670,8 +6673,8 @@
       <c r="B262" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C262" s="2" t="s">
-        <v>9</v>
+      <c r="C262" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>48</v>
@@ -6694,7 +6697,7 @@
         <v>78</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>50</v>
@@ -6716,8 +6719,8 @@
       <c r="B264" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C264" s="2" t="s">
-        <v>9</v>
+      <c r="C264" s="6" t="s">
+        <v>79</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>52</v>
@@ -6740,7 +6743,7 @@
         <v>78</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="D265" s="6" t="s">
         <v>54</v>

--- a/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F34AC971-5E9F-4F16-B9CA-A8E3426C4224}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB87B752-7556-4005-90BD-9299C9F4CEF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="73">
   <si>
     <t>Year</t>
   </si>
@@ -145,46 +145,25 @@
     <t>21/01/2026</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
     <t>06/12/2025</t>
   </si>
   <si>
     <t>08:30:00</t>
   </si>
   <si>
-    <t>17</t>
-  </si>
-  <si>
     <t>13/12/2025</t>
   </si>
   <si>
-    <t>18</t>
-  </si>
-  <si>
     <t>20/12/2025</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>27/12/2025</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>03/01/2026</t>
   </si>
   <si>
-    <t>21</t>
-  </si>
-  <si>
     <t>10/01/2026</t>
-  </si>
-  <si>
-    <t>22</t>
   </si>
   <si>
     <t>17/01/2026</t>
@@ -1039,16 +1018,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F17" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G17" s="9">
         <v>360</v>
@@ -1062,16 +1041,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G18" s="5">
         <v>360</v>
@@ -1085,16 +1064,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D19" s="6">
+        <v>3</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="9">
         <v>360</v>
@@ -1108,16 +1087,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G20" s="5">
         <v>360</v>
@@ -1131,16 +1110,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G21" s="9">
         <v>360</v>
@@ -1154,16 +1133,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D22" s="2">
+        <v>6</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="5">
         <v>360</v>
@@ -1177,16 +1156,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D23" s="6">
+        <v>7</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G23" s="9">
         <v>360</v>
@@ -1197,7 +1176,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1220,7 +1199,7 @@
         <v>7</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>9</v>
@@ -1243,7 +1222,7 @@
         <v>7</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1266,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>9</v>
@@ -1275,7 +1254,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>12</v>
@@ -1289,7 +1268,7 @@
         <v>7</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1298,7 +1277,7 @@
         <v>19</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F28" s="4" t="s">
         <v>12</v>
@@ -1312,7 +1291,7 @@
         <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>9</v>
@@ -1321,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>12</v>
@@ -1335,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -1344,7 +1323,7 @@
         <v>23</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F30" s="4" t="s">
         <v>12</v>
@@ -1358,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>9</v>
@@ -1367,7 +1346,7 @@
         <v>25</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>12</v>
@@ -1381,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -1390,7 +1369,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>12</v>
@@ -1404,7 +1383,7 @@
         <v>7</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>9</v>
@@ -1413,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>12</v>
@@ -1427,7 +1406,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -1436,7 +1415,7 @@
         <v>31</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F34" s="4" t="s">
         <v>12</v>
@@ -1450,7 +1429,7 @@
         <v>7</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>9</v>
@@ -1459,7 +1438,7 @@
         <v>33</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F35" s="8" t="s">
         <v>12</v>
@@ -1473,7 +1452,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1482,7 +1461,7 @@
         <v>35</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>12</v>
@@ -1496,7 +1475,7 @@
         <v>7</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>9</v>
@@ -1505,7 +1484,7 @@
         <v>37</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F37" s="8" t="s">
         <v>12</v>
@@ -1519,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -1528,7 +1507,7 @@
         <v>39</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>12</v>
@@ -1542,19 +1521,19 @@
         <v>7</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="6">
+        <v>1</v>
+      </c>
+      <c r="E39" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F39" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G39" s="9">
         <v>360</v>
@@ -1565,19 +1544,19 @@
         <v>7</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G40" s="5">
         <v>360</v>
@@ -1588,19 +1567,19 @@
         <v>7</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D41" s="6">
+        <v>3</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G41" s="9">
         <v>360</v>
@@ -1611,19 +1590,19 @@
         <v>7</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D42" s="2">
+        <v>4</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G42" s="5">
         <v>360</v>
@@ -1634,19 +1613,19 @@
         <v>7</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D43" s="6">
+        <v>5</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G43" s="9">
         <v>360</v>
@@ -1657,19 +1636,19 @@
         <v>7</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D44" s="2">
+        <v>6</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G44" s="5">
         <v>360</v>
@@ -1680,19 +1659,19 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D45" s="6">
+        <v>7</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" s="9">
         <v>360</v>
@@ -1703,7 +1682,7 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
@@ -1726,7 +1705,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>9</v>
@@ -1749,7 +1728,7 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
@@ -1772,7 +1751,7 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>9</v>
@@ -1781,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F49" s="8" t="s">
         <v>12</v>
@@ -1795,7 +1774,7 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
@@ -1804,7 +1783,7 @@
         <v>19</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F50" s="4" t="s">
         <v>12</v>
@@ -1818,7 +1797,7 @@
         <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>9</v>
@@ -1827,7 +1806,7 @@
         <v>21</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F51" s="8" t="s">
         <v>12</v>
@@ -1841,7 +1820,7 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
@@ -1850,7 +1829,7 @@
         <v>23</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F52" s="4" t="s">
         <v>12</v>
@@ -1864,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>9</v>
@@ -1873,7 +1852,7 @@
         <v>25</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F53" s="8" t="s">
         <v>12</v>
@@ -1887,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
@@ -1896,7 +1875,7 @@
         <v>27</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F54" s="4" t="s">
         <v>12</v>
@@ -1910,7 +1889,7 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>9</v>
@@ -1919,7 +1898,7 @@
         <v>29</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F55" s="8" t="s">
         <v>12</v>
@@ -1933,7 +1912,7 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
@@ -1942,7 +1921,7 @@
         <v>31</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F56" s="4" t="s">
         <v>12</v>
@@ -1956,7 +1935,7 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>9</v>
@@ -1965,7 +1944,7 @@
         <v>33</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F57" s="8" t="s">
         <v>12</v>
@@ -1979,7 +1958,7 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
@@ -1988,7 +1967,7 @@
         <v>35</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F58" s="4" t="s">
         <v>12</v>
@@ -2002,7 +1981,7 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>9</v>
@@ -2011,7 +1990,7 @@
         <v>37</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F59" s="8" t="s">
         <v>12</v>
@@ -2025,7 +2004,7 @@
         <v>7</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
@@ -2034,7 +2013,7 @@
         <v>39</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F60" s="4" t="s">
         <v>12</v>
@@ -2048,19 +2027,19 @@
         <v>7</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D61" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D61" s="6">
+        <v>1</v>
+      </c>
+      <c r="E61" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E61" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F61" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" s="9">
         <v>360</v>
@@ -2071,19 +2050,19 @@
         <v>7</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D62" s="2">
+        <v>2</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G62" s="5">
         <v>360</v>
@@ -2094,19 +2073,19 @@
         <v>7</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D63" s="6">
+        <v>3</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G63" s="9">
         <v>360</v>
@@ -2117,19 +2096,19 @@
         <v>7</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D64" s="2">
+        <v>4</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G64" s="5">
         <v>360</v>
@@ -2140,19 +2119,19 @@
         <v>7</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D65" s="6">
+        <v>5</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G65" s="9">
         <v>360</v>
@@ -2163,19 +2142,19 @@
         <v>7</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D66" s="2">
+        <v>6</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G66" s="5">
         <v>360</v>
@@ -2186,19 +2165,19 @@
         <v>7</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D67" s="6">
+        <v>7</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G67" s="9">
         <v>360</v>
@@ -2209,7 +2188,7 @@
         <v>7</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
@@ -2232,7 +2211,7 @@
         <v>7</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>9</v>
@@ -2255,7 +2234,7 @@
         <v>7</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
@@ -2278,7 +2257,7 @@
         <v>7</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>9</v>
@@ -2287,7 +2266,7 @@
         <v>17</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F71" s="8" t="s">
         <v>12</v>
@@ -2301,7 +2280,7 @@
         <v>7</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
@@ -2310,7 +2289,7 @@
         <v>19</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>12</v>
@@ -2324,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>9</v>
@@ -2333,7 +2312,7 @@
         <v>21</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F73" s="8" t="s">
         <v>12</v>
@@ -2347,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2356,7 +2335,7 @@
         <v>23</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>12</v>
@@ -2370,7 +2349,7 @@
         <v>7</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>9</v>
@@ -2379,7 +2358,7 @@
         <v>25</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F75" s="8" t="s">
         <v>12</v>
@@ -2393,7 +2372,7 @@
         <v>7</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
@@ -2402,7 +2381,7 @@
         <v>27</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>12</v>
@@ -2416,7 +2395,7 @@
         <v>7</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>9</v>
@@ -2425,7 +2404,7 @@
         <v>29</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F77" s="8" t="s">
         <v>12</v>
@@ -2439,7 +2418,7 @@
         <v>7</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -2448,7 +2427,7 @@
         <v>31</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>12</v>
@@ -2462,7 +2441,7 @@
         <v>7</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>9</v>
@@ -2471,7 +2450,7 @@
         <v>33</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F79" s="8" t="s">
         <v>12</v>
@@ -2485,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
@@ -2494,7 +2473,7 @@
         <v>35</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>12</v>
@@ -2508,7 +2487,7 @@
         <v>7</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>9</v>
@@ -2517,7 +2496,7 @@
         <v>37</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F81" s="8" t="s">
         <v>12</v>
@@ -2531,7 +2510,7 @@
         <v>7</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -2540,7 +2519,7 @@
         <v>39</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>12</v>
@@ -2554,19 +2533,19 @@
         <v>7</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D83" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D83" s="6">
+        <v>1</v>
+      </c>
+      <c r="E83" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E83" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F83" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G83" s="9">
         <v>360</v>
@@ -2577,19 +2556,19 @@
         <v>7</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D84" s="2">
+        <v>2</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G84" s="5">
         <v>360</v>
@@ -2600,19 +2579,19 @@
         <v>7</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D85" s="6">
+        <v>3</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F85" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G85" s="9">
         <v>360</v>
@@ -2623,19 +2602,19 @@
         <v>7</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D86" s="2">
+        <v>4</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G86" s="5">
         <v>360</v>
@@ -2646,19 +2625,19 @@
         <v>7</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D87" s="6">
+        <v>5</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F87" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G87" s="9">
         <v>360</v>
@@ -2669,19 +2648,19 @@
         <v>7</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D88" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D88" s="2">
+        <v>6</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G88" s="5">
         <v>360</v>
@@ -2692,19 +2671,19 @@
         <v>7</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D89" s="6">
+        <v>7</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F89" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G89" s="9">
         <v>360</v>
@@ -2715,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
@@ -2738,7 +2717,7 @@
         <v>7</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>9</v>
@@ -2761,7 +2740,7 @@
         <v>7</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
@@ -2784,7 +2763,7 @@
         <v>7</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>9</v>
@@ -2807,7 +2786,7 @@
         <v>7</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
@@ -2830,7 +2809,7 @@
         <v>7</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>9</v>
@@ -2853,7 +2832,7 @@
         <v>7</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
@@ -2876,7 +2855,7 @@
         <v>7</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>9</v>
@@ -2899,7 +2878,7 @@
         <v>7</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
@@ -2922,7 +2901,7 @@
         <v>7</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>9</v>
@@ -2945,7 +2924,7 @@
         <v>7</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
@@ -2968,7 +2947,7 @@
         <v>7</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>9</v>
@@ -2991,7 +2970,7 @@
         <v>7</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
@@ -3014,7 +2993,7 @@
         <v>7</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>9</v>
@@ -3037,7 +3016,7 @@
         <v>7</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
@@ -3060,19 +3039,19 @@
         <v>7</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D105" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D105" s="6">
+        <v>1</v>
+      </c>
+      <c r="E105" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E105" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F105" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G105" s="9">
         <v>360</v>
@@ -3083,19 +3062,19 @@
         <v>7</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D106" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D106" s="2">
+        <v>2</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G106" s="5">
         <v>360</v>
@@ -3106,19 +3085,19 @@
         <v>7</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D107" s="6">
+        <v>3</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G107" s="9">
         <v>360</v>
@@ -3129,19 +3108,19 @@
         <v>7</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D108" s="2">
+        <v>4</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G108" s="5">
         <v>360</v>
@@ -3152,19 +3131,19 @@
         <v>7</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D109" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D109" s="6">
+        <v>5</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G109" s="9">
         <v>360</v>
@@ -3175,19 +3154,19 @@
         <v>7</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D110" s="2">
+        <v>6</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G110" s="5">
         <v>360</v>
@@ -3198,19 +3177,19 @@
         <v>7</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D111" s="6">
+        <v>7</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F111" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G111" s="9">
         <v>360</v>
@@ -3221,7 +3200,7 @@
         <v>7</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
@@ -3244,7 +3223,7 @@
         <v>7</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>9</v>
@@ -3267,7 +3246,7 @@
         <v>7</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
@@ -3290,7 +3269,7 @@
         <v>7</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>9</v>
@@ -3313,7 +3292,7 @@
         <v>7</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>9</v>
@@ -3336,7 +3315,7 @@
         <v>7</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>9</v>
@@ -3359,7 +3338,7 @@
         <v>7</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>9</v>
@@ -3382,7 +3361,7 @@
         <v>7</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>9</v>
@@ -3405,7 +3384,7 @@
         <v>7</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
@@ -3428,7 +3407,7 @@
         <v>7</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>9</v>
@@ -3451,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
@@ -3474,7 +3453,7 @@
         <v>7</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>9</v>
@@ -3497,7 +3476,7 @@
         <v>7</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
@@ -3520,7 +3499,7 @@
         <v>7</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>9</v>
@@ -3543,7 +3522,7 @@
         <v>7</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>9</v>
@@ -3566,19 +3545,19 @@
         <v>7</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D127" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D127" s="6">
+        <v>1</v>
+      </c>
+      <c r="E127" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E127" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F127" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G127" s="9">
         <v>360</v>
@@ -3589,19 +3568,19 @@
         <v>7</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D128" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D128" s="2">
+        <v>2</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G128" s="5">
         <v>360</v>
@@ -3612,19 +3591,19 @@
         <v>7</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D129" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D129" s="6">
+        <v>3</v>
       </c>
       <c r="E129" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F129" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G129" s="9">
         <v>360</v>
@@ -3635,19 +3614,19 @@
         <v>7</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D130" s="2">
+        <v>4</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G130" s="5">
         <v>360</v>
@@ -3658,19 +3637,19 @@
         <v>7</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D131" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D131" s="6">
+        <v>5</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G131" s="9">
         <v>360</v>
@@ -3681,19 +3660,19 @@
         <v>7</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D132" s="2">
+        <v>6</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G132" s="5">
         <v>360</v>
@@ -3704,19 +3683,19 @@
         <v>7</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D133" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D133" s="6">
+        <v>7</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F133" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G133" s="9">
         <v>360</v>
@@ -3727,7 +3706,7 @@
         <v>7</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
@@ -3750,7 +3729,7 @@
         <v>7</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>9</v>
@@ -3773,7 +3752,7 @@
         <v>7</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
@@ -3796,7 +3775,7 @@
         <v>7</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>9</v>
@@ -3819,7 +3798,7 @@
         <v>7</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
@@ -3842,7 +3821,7 @@
         <v>7</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>9</v>
@@ -3865,7 +3844,7 @@
         <v>7</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
@@ -3888,7 +3867,7 @@
         <v>7</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>9</v>
@@ -3911,7 +3890,7 @@
         <v>7</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
@@ -3934,7 +3913,7 @@
         <v>7</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>9</v>
@@ -3957,7 +3936,7 @@
         <v>7</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>9</v>
@@ -3980,7 +3959,7 @@
         <v>7</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>9</v>
@@ -4003,7 +3982,7 @@
         <v>7</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>9</v>
@@ -4026,7 +4005,7 @@
         <v>7</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>9</v>
@@ -4049,7 +4028,7 @@
         <v>7</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>9</v>
@@ -4072,19 +4051,19 @@
         <v>7</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D149" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D149" s="6">
+        <v>1</v>
+      </c>
+      <c r="E149" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E149" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F149" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G149" s="9">
         <v>360</v>
@@ -4095,19 +4074,19 @@
         <v>7</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D150" s="2">
+        <v>2</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G150" s="5">
         <v>360</v>
@@ -4118,19 +4097,19 @@
         <v>7</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D151" s="6">
+        <v>3</v>
       </c>
       <c r="E151" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F151" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G151" s="9">
         <v>360</v>
@@ -4141,19 +4120,19 @@
         <v>7</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D152" s="2">
+        <v>4</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G152" s="5">
         <v>360</v>
@@ -4164,19 +4143,19 @@
         <v>7</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D153" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D153" s="6">
+        <v>5</v>
       </c>
       <c r="E153" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F153" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G153" s="9">
         <v>360</v>
@@ -4187,19 +4166,19 @@
         <v>7</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D154" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D154" s="2">
+        <v>6</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G154" s="5">
         <v>360</v>
@@ -4210,19 +4189,19 @@
         <v>7</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D155" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D155" s="6">
+        <v>7</v>
       </c>
       <c r="E155" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F155" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G155" s="9">
         <v>360</v>
@@ -4233,7 +4212,7 @@
         <v>7</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
@@ -4256,7 +4235,7 @@
         <v>7</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>9</v>
@@ -4279,7 +4258,7 @@
         <v>7</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
@@ -4302,7 +4281,7 @@
         <v>7</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>9</v>
@@ -4325,7 +4304,7 @@
         <v>7</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>9</v>
@@ -4348,7 +4327,7 @@
         <v>7</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>9</v>
@@ -4371,7 +4350,7 @@
         <v>7</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
@@ -4394,7 +4373,7 @@
         <v>7</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>9</v>
@@ -4417,7 +4396,7 @@
         <v>7</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
@@ -4440,7 +4419,7 @@
         <v>7</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>9</v>
@@ -4463,7 +4442,7 @@
         <v>7</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
@@ -4486,7 +4465,7 @@
         <v>7</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>9</v>
@@ -4509,7 +4488,7 @@
         <v>7</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
@@ -4532,7 +4511,7 @@
         <v>7</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>9</v>
@@ -4555,7 +4534,7 @@
         <v>7</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
@@ -4578,19 +4557,19 @@
         <v>7</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D171" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D171" s="6">
+        <v>1</v>
+      </c>
+      <c r="E171" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E171" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F171" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G171" s="9">
         <v>360</v>
@@ -4601,19 +4580,19 @@
         <v>7</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D172" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D172" s="2">
+        <v>2</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G172" s="5">
         <v>360</v>
@@ -4624,19 +4603,19 @@
         <v>7</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D173" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D173" s="6">
+        <v>3</v>
       </c>
       <c r="E173" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F173" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G173" s="9">
         <v>360</v>
@@ -4647,19 +4626,19 @@
         <v>7</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D174" s="2">
+        <v>4</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G174" s="5">
         <v>360</v>
@@ -4670,19 +4649,19 @@
         <v>7</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D175" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D175" s="6">
+        <v>5</v>
       </c>
       <c r="E175" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F175" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G175" s="9">
         <v>360</v>
@@ -4693,19 +4672,19 @@
         <v>7</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D176" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D176" s="2">
+        <v>6</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G176" s="5">
         <v>360</v>
@@ -4716,19 +4695,19 @@
         <v>7</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D177" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D177" s="6">
+        <v>7</v>
       </c>
       <c r="E177" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F177" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G177" s="9">
         <v>360</v>
@@ -4739,7 +4718,7 @@
         <v>7</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
@@ -4762,7 +4741,7 @@
         <v>7</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>9</v>
@@ -4785,7 +4764,7 @@
         <v>7</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
@@ -4808,7 +4787,7 @@
         <v>7</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>9</v>
@@ -4831,7 +4810,7 @@
         <v>7</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
@@ -4854,7 +4833,7 @@
         <v>7</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>9</v>
@@ -4877,7 +4856,7 @@
         <v>7</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
@@ -4900,7 +4879,7 @@
         <v>7</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>9</v>
@@ -4923,7 +4902,7 @@
         <v>7</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
@@ -4946,7 +4925,7 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>9</v>
@@ -4969,7 +4948,7 @@
         <v>7</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>9</v>
@@ -4992,7 +4971,7 @@
         <v>7</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>9</v>
@@ -5015,7 +4994,7 @@
         <v>7</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
@@ -5038,7 +5017,7 @@
         <v>7</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>9</v>
@@ -5061,7 +5040,7 @@
         <v>7</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
@@ -5084,19 +5063,19 @@
         <v>7</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D193" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D193" s="6">
+        <v>1</v>
+      </c>
+      <c r="E193" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E193" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F193" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G193" s="9">
         <v>360</v>
@@ -5107,19 +5086,19 @@
         <v>7</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D194" s="2">
+        <v>2</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G194" s="5">
         <v>360</v>
@@ -5130,19 +5109,19 @@
         <v>7</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D195" s="6">
+        <v>3</v>
       </c>
       <c r="E195" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F195" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G195" s="9">
         <v>360</v>
@@ -5153,19 +5132,19 @@
         <v>7</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D196" s="2">
+        <v>4</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F196" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G196" s="5">
         <v>360</v>
@@ -5176,19 +5155,19 @@
         <v>7</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D197" s="6">
+        <v>5</v>
       </c>
       <c r="E197" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F197" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G197" s="9">
         <v>360</v>
@@ -5199,19 +5178,19 @@
         <v>7</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D198" s="2">
+        <v>6</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G198" s="5">
         <v>360</v>
@@ -5222,19 +5201,19 @@
         <v>7</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D199" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D199" s="6">
+        <v>7</v>
       </c>
       <c r="E199" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F199" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G199" s="9">
         <v>360</v>
@@ -5245,7 +5224,7 @@
         <v>7</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
@@ -5268,7 +5247,7 @@
         <v>7</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>9</v>
@@ -5291,7 +5270,7 @@
         <v>7</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
@@ -5314,7 +5293,7 @@
         <v>7</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>9</v>
@@ -5323,7 +5302,7 @@
         <v>17</v>
       </c>
       <c r="E203" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F203" s="8" t="s">
         <v>12</v>
@@ -5337,7 +5316,7 @@
         <v>7</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
@@ -5346,7 +5325,7 @@
         <v>19</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F204" s="4" t="s">
         <v>12</v>
@@ -5360,7 +5339,7 @@
         <v>7</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>9</v>
@@ -5369,7 +5348,7 @@
         <v>21</v>
       </c>
       <c r="E205" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F205" s="8" t="s">
         <v>12</v>
@@ -5383,7 +5362,7 @@
         <v>7</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
@@ -5392,7 +5371,7 @@
         <v>23</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F206" s="4" t="s">
         <v>12</v>
@@ -5406,7 +5385,7 @@
         <v>7</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>9</v>
@@ -5415,7 +5394,7 @@
         <v>25</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F207" s="8" t="s">
         <v>12</v>
@@ -5429,7 +5408,7 @@
         <v>7</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
@@ -5438,7 +5417,7 @@
         <v>27</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F208" s="4" t="s">
         <v>12</v>
@@ -5452,7 +5431,7 @@
         <v>7</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>9</v>
@@ -5461,7 +5440,7 @@
         <v>29</v>
       </c>
       <c r="E209" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F209" s="8" t="s">
         <v>12</v>
@@ -5475,7 +5454,7 @@
         <v>7</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
@@ -5484,7 +5463,7 @@
         <v>31</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>12</v>
@@ -5498,7 +5477,7 @@
         <v>7</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>9</v>
@@ -5507,7 +5486,7 @@
         <v>33</v>
       </c>
       <c r="E211" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F211" s="8" t="s">
         <v>12</v>
@@ -5521,7 +5500,7 @@
         <v>7</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
@@ -5530,7 +5509,7 @@
         <v>35</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F212" s="4" t="s">
         <v>12</v>
@@ -5544,7 +5523,7 @@
         <v>7</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>9</v>
@@ -5553,7 +5532,7 @@
         <v>37</v>
       </c>
       <c r="E213" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F213" s="8" t="s">
         <v>12</v>
@@ -5567,7 +5546,7 @@
         <v>7</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
@@ -5576,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F214" s="4" t="s">
         <v>12</v>
@@ -5590,19 +5569,19 @@
         <v>7</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D215" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D215" s="6">
+        <v>1</v>
+      </c>
+      <c r="E215" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E215" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F215" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G215" s="9">
         <v>360</v>
@@ -5613,19 +5592,19 @@
         <v>7</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D216" s="2">
+        <v>2</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G216" s="5">
         <v>360</v>
@@ -5636,19 +5615,19 @@
         <v>7</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D217" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D217" s="6">
+        <v>3</v>
       </c>
       <c r="E217" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F217" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G217" s="9">
         <v>360</v>
@@ -5659,19 +5638,19 @@
         <v>7</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D218" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D218" s="2">
+        <v>4</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F218" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G218" s="5">
         <v>360</v>
@@ -5682,19 +5661,19 @@
         <v>7</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D219" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D219" s="6">
+        <v>5</v>
       </c>
       <c r="E219" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F219" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G219" s="9">
         <v>360</v>
@@ -5705,19 +5684,19 @@
         <v>7</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D220" s="2">
+        <v>6</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F220" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G220" s="5">
         <v>360</v>
@@ -5728,19 +5707,19 @@
         <v>7</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D221" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D221" s="6">
+        <v>7</v>
       </c>
       <c r="E221" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F221" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G221" s="9">
         <v>360</v>
@@ -5751,7 +5730,7 @@
         <v>7</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
@@ -5774,7 +5753,7 @@
         <v>7</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>9</v>
@@ -5797,7 +5776,7 @@
         <v>7</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
@@ -5820,7 +5799,7 @@
         <v>7</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>9</v>
@@ -5829,7 +5808,7 @@
         <v>17</v>
       </c>
       <c r="E225" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F225" s="8" t="s">
         <v>12</v>
@@ -5843,7 +5822,7 @@
         <v>7</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
@@ -5852,7 +5831,7 @@
         <v>19</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F226" s="4" t="s">
         <v>12</v>
@@ -5866,7 +5845,7 @@
         <v>7</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>9</v>
@@ -5875,7 +5854,7 @@
         <v>21</v>
       </c>
       <c r="E227" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F227" s="8" t="s">
         <v>12</v>
@@ -5889,7 +5868,7 @@
         <v>7</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>9</v>
@@ -5898,7 +5877,7 @@
         <v>23</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F228" s="4" t="s">
         <v>12</v>
@@ -5912,7 +5891,7 @@
         <v>7</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>9</v>
@@ -5921,7 +5900,7 @@
         <v>25</v>
       </c>
       <c r="E229" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>12</v>
@@ -5935,7 +5914,7 @@
         <v>7</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
@@ -5944,7 +5923,7 @@
         <v>27</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F230" s="4" t="s">
         <v>12</v>
@@ -5958,7 +5937,7 @@
         <v>7</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>9</v>
@@ -5967,7 +5946,7 @@
         <v>29</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F231" s="8" t="s">
         <v>12</v>
@@ -5981,7 +5960,7 @@
         <v>7</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
@@ -5990,7 +5969,7 @@
         <v>31</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F232" s="4" t="s">
         <v>12</v>
@@ -6004,7 +5983,7 @@
         <v>7</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>9</v>
@@ -6013,7 +5992,7 @@
         <v>33</v>
       </c>
       <c r="E233" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F233" s="8" t="s">
         <v>12</v>
@@ -6027,7 +6006,7 @@
         <v>7</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>9</v>
@@ -6036,7 +6015,7 @@
         <v>35</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>12</v>
@@ -6050,7 +6029,7 @@
         <v>7</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>9</v>
@@ -6059,7 +6038,7 @@
         <v>37</v>
       </c>
       <c r="E235" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F235" s="8" t="s">
         <v>12</v>
@@ -6073,7 +6052,7 @@
         <v>7</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
@@ -6082,7 +6061,7 @@
         <v>39</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F236" s="4" t="s">
         <v>12</v>
@@ -6096,19 +6075,19 @@
         <v>7</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D237" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D237" s="6">
+        <v>1</v>
+      </c>
+      <c r="E237" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E237" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F237" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G237" s="9">
         <v>360</v>
@@ -6119,19 +6098,19 @@
         <v>7</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D238" s="2">
+        <v>2</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G238" s="5">
         <v>360</v>
@@ -6142,19 +6121,19 @@
         <v>7</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D239" s="6">
+        <v>3</v>
       </c>
       <c r="E239" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F239" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G239" s="9">
         <v>360</v>
@@ -6165,19 +6144,19 @@
         <v>7</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D240" s="2">
+        <v>4</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G240" s="5">
         <v>360</v>
@@ -6188,19 +6167,19 @@
         <v>7</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D241" s="6">
+        <v>5</v>
       </c>
       <c r="E241" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F241" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G241" s="9">
         <v>360</v>
@@ -6211,19 +6190,19 @@
         <v>7</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D242" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D242" s="2">
+        <v>6</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G242" s="5">
         <v>360</v>
@@ -6234,19 +6213,19 @@
         <v>7</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D243" s="6">
+        <v>7</v>
       </c>
       <c r="E243" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F243" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G243" s="9">
         <v>360</v>
@@ -6257,7 +6236,7 @@
         <v>7</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>9</v>
@@ -6280,7 +6259,7 @@
         <v>7</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>9</v>
@@ -6303,7 +6282,7 @@
         <v>7</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
@@ -6326,7 +6305,7 @@
         <v>7</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>9</v>
@@ -6335,7 +6314,7 @@
         <v>17</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F247" s="8" t="s">
         <v>12</v>
@@ -6349,7 +6328,7 @@
         <v>7</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
@@ -6358,7 +6337,7 @@
         <v>19</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>12</v>
@@ -6372,7 +6351,7 @@
         <v>7</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>9</v>
@@ -6381,7 +6360,7 @@
         <v>21</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F249" s="8" t="s">
         <v>12</v>
@@ -6395,7 +6374,7 @@
         <v>7</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
@@ -6404,7 +6383,7 @@
         <v>23</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>12</v>
@@ -6418,7 +6397,7 @@
         <v>7</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>9</v>
@@ -6427,7 +6406,7 @@
         <v>25</v>
       </c>
       <c r="E251" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="F251" s="8" t="s">
         <v>12</v>
@@ -6441,7 +6420,7 @@
         <v>7</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>9</v>
@@ -6450,7 +6429,7 @@
         <v>27</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F252" s="4" t="s">
         <v>12</v>
@@ -6464,7 +6443,7 @@
         <v>7</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>9</v>
@@ -6473,7 +6452,7 @@
         <v>29</v>
       </c>
       <c r="E253" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="F253" s="8" t="s">
         <v>12</v>
@@ -6487,7 +6466,7 @@
         <v>7</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
@@ -6496,7 +6475,7 @@
         <v>31</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F254" s="4" t="s">
         <v>12</v>
@@ -6510,7 +6489,7 @@
         <v>7</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>9</v>
@@ -6519,7 +6498,7 @@
         <v>33</v>
       </c>
       <c r="E255" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F255" s="8" t="s">
         <v>12</v>
@@ -6533,7 +6512,7 @@
         <v>7</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>9</v>
@@ -6542,7 +6521,7 @@
         <v>35</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F256" s="4" t="s">
         <v>12</v>
@@ -6556,7 +6535,7 @@
         <v>7</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>9</v>
@@ -6565,7 +6544,7 @@
         <v>37</v>
       </c>
       <c r="E257" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F257" s="8" t="s">
         <v>12</v>
@@ -6579,7 +6558,7 @@
         <v>7</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
@@ -6588,7 +6567,7 @@
         <v>39</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="F258" s="4" t="s">
         <v>12</v>
@@ -6602,19 +6581,19 @@
         <v>7</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D259" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D259" s="6">
+        <v>1</v>
+      </c>
+      <c r="E259" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E259" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="F259" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G259" s="9">
         <v>360</v>
@@ -6625,19 +6604,19 @@
         <v>7</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>44</v>
+        <v>72</v>
+      </c>
+      <c r="D260" s="2">
+        <v>2</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F260" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G260" s="5">
         <v>360</v>
@@ -6648,19 +6627,19 @@
         <v>7</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D261" s="6" t="s">
-        <v>46</v>
+        <v>72</v>
+      </c>
+      <c r="D261" s="6">
+        <v>3</v>
       </c>
       <c r="E261" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G261" s="9">
         <v>360</v>
@@ -6671,19 +6650,19 @@
         <v>7</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>48</v>
+        <v>72</v>
+      </c>
+      <c r="D262" s="2">
+        <v>4</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F262" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G262" s="5">
         <v>360</v>
@@ -6694,19 +6673,19 @@
         <v>7</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D263" s="6" t="s">
-        <v>50</v>
+        <v>72</v>
+      </c>
+      <c r="D263" s="6">
+        <v>5</v>
       </c>
       <c r="E263" s="7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="F263" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G263" s="9">
         <v>360</v>
@@ -6717,19 +6696,19 @@
         <v>7</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D264" s="2" t="s">
-        <v>52</v>
+        <v>72</v>
+      </c>
+      <c r="D264" s="2">
+        <v>6</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F264" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G264" s="5">
         <v>360</v>
@@ -6740,19 +6719,19 @@
         <v>7</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D265" s="6" t="s">
-        <v>54</v>
+        <v>72</v>
+      </c>
+      <c r="D265" s="6">
+        <v>7</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F265" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G265" s="9">
         <v>360</v>

--- a/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11205"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11217"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Desktop\modules_schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{8F4D849C-B723-5742-A9FF-936950ED6C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{8B3DE7D4-F217-6040-96E1-6E8B73536A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3320" yWindow="580" windowWidth="18280" windowHeight="13100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="69">
   <si>
     <t>Year</t>
   </si>
@@ -137,30 +137,18 @@
     <t>14/01/2026</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>20/01/2026</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>21/01/2026</t>
   </si>
   <si>
-    <t>06/12/2025</t>
-  </si>
-  <si>
     <t>08:30:00</t>
   </si>
   <si>
     <t>13/12/2025</t>
   </si>
   <si>
-    <t>20/12/2025</t>
-  </si>
-  <si>
     <t>27/12/2025</t>
   </si>
   <si>
@@ -243,13 +231,16 @@
   </si>
   <si>
     <t>Surgery Seminar/Slide</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +257,12 @@
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -631,11 +628,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G247"/>
+  <dimension ref="A1:G223"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0">
-      <selection activeCell="A229" sqref="A229:XFD229"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="156" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -725,8 +720,8 @@
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
+      <c r="D4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
@@ -749,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>19</v>
@@ -772,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>21</v>
@@ -795,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>23</v>
@@ -818,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>25</v>
@@ -841,7 +836,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>27</v>
@@ -864,7 +859,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
@@ -887,7 +882,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>31</v>
@@ -910,7 +905,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>33</v>
@@ -933,10 +928,10 @@
         <v>9</v>
       </c>
       <c r="D13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>12</v>
@@ -956,38 +951,38 @@
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="5">
         <v>360</v>
       </c>
     </row>
@@ -999,16 +994,16 @@
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D16" s="2">
         <v>2</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G16" s="5">
         <v>360</v>
@@ -1022,16 +1017,16 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D17" s="6">
+        <v>65</v>
+      </c>
+      <c r="D17" s="2">
         <v>3</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G17" s="9">
         <v>360</v>
@@ -1045,16 +1040,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D18" s="2">
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" s="5">
         <v>360</v>
@@ -1068,16 +1063,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="6">
+        <v>65</v>
+      </c>
+      <c r="D19" s="2">
         <v>5</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G19" s="9">
         <v>360</v>
@@ -1088,22 +1083,22 @@
         <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="2">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G20" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,67 +1106,67 @@
         <v>7</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="6">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G21" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="A22" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="5">
+        <v>66</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="9">
+        <v>15</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5">
         <v>180</v>
       </c>
     </row>
@@ -1180,16 +1175,16 @@
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>15</v>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>12</v>
@@ -1203,16 +1198,16 @@
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>12</v>
@@ -1226,16 +1221,16 @@
         <v>7</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D26" s="6" t="s">
-        <v>18</v>
+      <c r="D26" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>12</v>
@@ -1249,16 +1244,16 @@
         <v>7</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>20</v>
+      <c r="D27" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="4" t="s">
         <v>12</v>
@@ -1272,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="6" t="s">
-        <v>22</v>
+      <c r="D28" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>12</v>
@@ -1295,16 +1290,16 @@
         <v>7</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>24</v>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F29" s="4" t="s">
         <v>12</v>
@@ -1318,16 +1313,16 @@
         <v>7</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="6" t="s">
-        <v>26</v>
+      <c r="D30" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>12</v>
@@ -1341,16 +1336,16 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>28</v>
+      <c r="D31" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>12</v>
@@ -1364,16 +1359,16 @@
         <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="6" t="s">
-        <v>30</v>
+      <c r="D32" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32" s="8" t="s">
         <v>12</v>
@@ -1387,16 +1382,16 @@
         <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="2" t="s">
-        <v>32</v>
+      <c r="D33" s="2">
+        <v>14</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>12</v>
@@ -1406,26 +1401,26 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>46</v>
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1433,22 +1428,22 @@
         <v>7</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="2">
+        <v>2</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G35" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1456,19 +1451,19 @@
         <v>7</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="6">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G36" s="9">
         <v>360</v>
@@ -1479,19 +1474,19 @@
         <v>7</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D37" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G37" s="5">
         <v>360</v>
@@ -1502,19 +1497,19 @@
         <v>7</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="6">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="D38" s="2">
+        <v>5</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G38" s="9">
         <v>360</v>
@@ -1525,22 +1520,22 @@
         <v>7</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="2">
-        <v>4</v>
+        <v>55</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G39" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1548,113 +1543,113 @@
         <v>7</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C40" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="6">
-        <v>5</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G40" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="2">
-        <v>6</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G41" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D42" s="6">
-        <v>7</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G42" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="9">
+      <c r="F44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5">
         <v>180</v>
       </c>
     </row>
@@ -1663,13 +1658,13 @@
         <v>7</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>15</v>
+      <c r="D45" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>47</v>
@@ -1686,13 +1681,13 @@
         <v>7</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>17</v>
+      <c r="D46" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E46" s="3" t="s">
         <v>48</v>
@@ -1709,13 +1704,13 @@
         <v>7</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>18</v>
+      <c r="D47" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>49</v>
@@ -1732,13 +1727,13 @@
         <v>7</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2" t="s">
-        <v>20</v>
+      <c r="D48" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>50</v>
@@ -1755,13 +1750,13 @@
         <v>7</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>22</v>
+      <c r="D49" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>51</v>
@@ -1778,13 +1773,13 @@
         <v>7</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>24</v>
+      <c r="D50" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>52</v>
@@ -1801,13 +1796,13 @@
         <v>7</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>26</v>
+      <c r="D51" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>53</v>
@@ -1824,13 +1819,13 @@
         <v>7</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>28</v>
+      <c r="D52" s="2">
+        <v>14</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>54</v>
@@ -1843,26 +1838,26 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>59</v>
+      <c r="A53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -1870,22 +1865,22 @@
         <v>7</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>32</v>
+        <v>55</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D54" s="2">
+        <v>2</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G54" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -1893,22 +1888,22 @@
         <v>7</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="D55" s="2">
+        <v>3</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G55" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -1916,22 +1911,22 @@
         <v>7</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56" s="2">
+        <v>4</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G56" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
@@ -1939,19 +1934,19 @@
         <v>7</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" s="6">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D57" s="2">
+        <v>5</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G57" s="9">
         <v>360</v>
@@ -1962,22 +1957,22 @@
         <v>7</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2</v>
+        <v>56</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G58" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
@@ -1985,159 +1980,159 @@
         <v>7</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D59" s="6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G59" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>59</v>
+      <c r="A60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D60" s="2">
-        <v>4</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F60" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G60" s="5">
-        <v>360</v>
+        <v>9</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="9">
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D61" s="6">
-        <v>5</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G61" s="9">
-        <v>360</v>
+      <c r="A61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>59</v>
+      <c r="A62" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D62" s="2">
-        <v>6</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="5">
-        <v>360</v>
+        <v>9</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="9">
+        <v>180</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D63" s="6">
-        <v>7</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" s="9">
-        <v>360</v>
+      <c r="A63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="A64" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="5">
+        <v>20</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A65" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="A65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="9">
+        <v>22</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5">
         <v>180</v>
       </c>
     </row>
@@ -2146,16 +2141,16 @@
         <v>7</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>15</v>
+      <c r="D66" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F66" s="8" t="s">
         <v>12</v>
@@ -2169,16 +2164,16 @@
         <v>7</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>17</v>
+      <c r="D67" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>12</v>
@@ -2192,16 +2187,16 @@
         <v>7</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D68" s="6" t="s">
-        <v>18</v>
+      <c r="D68" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68" s="8" t="s">
         <v>12</v>
@@ -2215,16 +2210,16 @@
         <v>7</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D69" s="2" t="s">
-        <v>20</v>
+      <c r="D69" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>12</v>
@@ -2238,16 +2233,16 @@
         <v>7</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="6" t="s">
-        <v>22</v>
+      <c r="D70" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F70" s="8" t="s">
         <v>12</v>
@@ -2261,16 +2256,16 @@
         <v>7</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="2" t="s">
-        <v>24</v>
+      <c r="D71" s="2">
+        <v>14</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>12</v>
@@ -2280,26 +2275,26 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>60</v>
+      <c r="A72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D72" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
@@ -2307,22 +2302,22 @@
         <v>7</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>28</v>
+        <v>56</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D73" s="2">
+        <v>2</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G73" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
@@ -2330,22 +2325,22 @@
         <v>7</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="6" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="D74" s="2">
+        <v>3</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F74" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G74" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2353,22 +2348,22 @@
         <v>7</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>32</v>
+        <v>56</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" s="2">
+        <v>4</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G75" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
@@ -2376,22 +2371,22 @@
         <v>7</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="6" t="s">
-        <v>34</v>
+        <v>65</v>
+      </c>
+      <c r="D76" s="2">
+        <v>5</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F76" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G76" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
@@ -2399,16 +2394,16 @@
         <v>7</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>12</v>
@@ -2422,45 +2417,45 @@
         <v>7</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D78" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F78" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G78" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>60</v>
+      <c r="A79" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D79" s="2">
-        <v>2</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G79" s="5">
-        <v>360</v>
+        <v>9</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="9">
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
@@ -2468,22 +2463,22 @@
         <v>7</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D80" s="6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="F80" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G80" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
@@ -2491,22 +2486,22 @@
         <v>7</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D81" s="2">
-        <v>4</v>
+        <v>57</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G81" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
@@ -2514,22 +2509,22 @@
         <v>7</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D82" s="6">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F82" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G82" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
@@ -2537,22 +2532,22 @@
         <v>7</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D83" s="2">
-        <v>6</v>
+        <v>57</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G83" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
@@ -2560,22 +2555,22 @@
         <v>7</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D84" s="6">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="F84" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G84" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2583,16 +2578,16 @@
         <v>7</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>12</v>
@@ -2606,16 +2601,16 @@
         <v>7</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F86" s="8" t="s">
         <v>12</v>
@@ -2625,25 +2620,25 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="A87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5">
         <v>180</v>
       </c>
     </row>
@@ -2652,16 +2647,16 @@
         <v>7</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F88" s="8" t="s">
         <v>12</v>
@@ -2675,16 +2670,16 @@
         <v>7</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>12</v>
@@ -2694,26 +2689,26 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>61</v>
+      <c r="A90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E90" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D90" s="2">
+        <v>1</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G90" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
@@ -2721,22 +2716,22 @@
         <v>7</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="C91" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D91" s="2">
+        <v>2</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G91" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.2">
@@ -2744,22 +2739,22 @@
         <v>7</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="D92" s="2">
+        <v>3</v>
       </c>
       <c r="E92" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="F92" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G92" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
@@ -2767,22 +2762,22 @@
         <v>7</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>28</v>
+        <v>57</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D93" s="2">
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G93" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.2">
@@ -2790,22 +2785,22 @@
         <v>7</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D94" s="6" t="s">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="D94" s="2">
+        <v>5</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F94" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G94" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
@@ -2813,16 +2808,16 @@
         <v>7</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>12</v>
@@ -2836,16 +2831,16 @@
         <v>7</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F96" s="8" t="s">
         <v>12</v>
@@ -2855,25 +2850,25 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C97" s="2" t="s">
+      <c r="A97" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C97" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="5">
+        <v>66</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="9">
         <v>180</v>
       </c>
     </row>
@@ -2882,22 +2877,22 @@
         <v>7</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D98" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G98" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
@@ -2905,22 +2900,22 @@
         <v>7</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C99" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D99" s="2">
-        <v>2</v>
+        <v>58</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G99" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2928,22 +2923,22 @@
         <v>7</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D100" s="6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D100" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G100" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,22 +2946,22 @@
         <v>7</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C101" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="2">
-        <v>4</v>
+        <v>58</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G101" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2974,22 +2969,22 @@
         <v>7</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="6">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D102" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G102" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2997,22 +2992,22 @@
         <v>7</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C103" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D103" s="2">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G103" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -3020,22 +3015,22 @@
         <v>7</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="6">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D104" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G104" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
@@ -3043,16 +3038,16 @@
         <v>7</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>12</v>
@@ -3066,16 +3061,16 @@
         <v>7</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="E106" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F106" s="8" t="s">
         <v>12</v>
@@ -3085,49 +3080,49 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B107" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C107" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E107" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="9">
+      <c r="A107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B108" s="6" t="s">
-        <v>62</v>
+      <c r="A108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D108" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E108" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D108" s="2">
+        <v>1</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
@@ -3135,22 +3130,22 @@
         <v>7</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>20</v>
+        <v>58</v>
+      </c>
+      <c r="C109" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D109" s="2">
+        <v>2</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G109" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
@@ -3158,22 +3153,22 @@
         <v>7</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D110" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="D110" s="2">
+        <v>3</v>
       </c>
       <c r="E110" s="7" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G110" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
@@ -3181,22 +3176,22 @@
         <v>7</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>24</v>
+        <v>58</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D111" s="2">
+        <v>4</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G111" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
@@ -3204,22 +3199,22 @@
         <v>7</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D112" s="6" t="s">
-        <v>26</v>
+        <v>65</v>
+      </c>
+      <c r="D112" s="2">
+        <v>5</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G112" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -3227,16 +3222,16 @@
         <v>7</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>12</v>
@@ -3250,16 +3245,16 @@
         <v>7</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F114" s="8" t="s">
         <v>12</v>
@@ -3269,25 +3264,25 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C115" s="2" t="s">
+      <c r="A115" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F115" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="5">
+        <v>66</v>
+      </c>
+      <c r="E115" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="9">
         <v>180</v>
       </c>
     </row>
@@ -3296,16 +3291,16 @@
         <v>7</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="E116" s="7" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F116" s="8" t="s">
         <v>12</v>
@@ -3319,16 +3314,16 @@
         <v>7</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>12</v>
@@ -3342,22 +3337,22 @@
         <v>7</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D118" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D118" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G118" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -3365,22 +3360,22 @@
         <v>7</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C119" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D119" s="2">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G119" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3388,22 +3383,22 @@
         <v>7</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D120" s="6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D120" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G120" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3411,22 +3406,22 @@
         <v>7</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="2">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G121" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -3434,22 +3429,22 @@
         <v>7</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="6">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D122" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E122" s="7" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F122" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G122" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -3457,22 +3452,22 @@
         <v>7</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C123" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D123" s="2">
-        <v>6</v>
+        <v>59</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G123" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -3480,22 +3475,22 @@
         <v>7</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D124" s="6">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="D124" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G124" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3503,16 +3498,16 @@
         <v>7</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>12</v>
@@ -3522,49 +3517,49 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B126" s="6" t="s">
-        <v>63</v>
+      <c r="A126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D126" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E126" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D126" s="2">
+        <v>1</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B127" s="6" t="s">
-        <v>63</v>
+      <c r="A127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D127" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E127" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G127" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D127" s="2">
+        <v>2</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G127" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -3572,22 +3567,22 @@
         <v>7</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D128" s="6" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="D128" s="2">
+        <v>3</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G128" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -3595,22 +3590,22 @@
         <v>7</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D129" s="2" t="s">
-        <v>20</v>
+        <v>59</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D129" s="2">
+        <v>4</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G129" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -3618,22 +3613,22 @@
         <v>7</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D130" s="6" t="s">
-        <v>22</v>
+        <v>65</v>
+      </c>
+      <c r="D130" s="2">
+        <v>5</v>
       </c>
       <c r="E130" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F130" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G130" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -3641,16 +3636,16 @@
         <v>7</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>12</v>
@@ -3664,16 +3659,16 @@
         <v>7</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="F132" s="8" t="s">
         <v>12</v>
@@ -3683,25 +3678,25 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C133" s="2" t="s">
+      <c r="A133" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G133" s="5">
+        <v>66</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G133" s="9">
         <v>180</v>
       </c>
     </row>
@@ -3710,16 +3705,16 @@
         <v>7</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F134" s="8" t="s">
         <v>12</v>
@@ -3733,16 +3728,16 @@
         <v>7</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>12</v>
@@ -3756,16 +3751,16 @@
         <v>7</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F136" s="8" t="s">
         <v>12</v>
@@ -3779,16 +3774,16 @@
         <v>7</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>12</v>
@@ -3802,22 +3797,22 @@
         <v>7</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D138" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D138" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E138" s="7" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F138" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G138" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -3825,22 +3820,22 @@
         <v>7</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" s="2">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G139" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3848,22 +3843,22 @@
         <v>7</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" s="6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E140" s="7" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G140" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -3871,22 +3866,22 @@
         <v>7</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C141" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D141" s="2">
-        <v>4</v>
+        <v>60</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G141" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -3894,22 +3889,22 @@
         <v>7</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D142" s="6">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D142" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E142" s="7" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F142" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G142" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -3917,44 +3912,44 @@
         <v>7</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C143" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" s="2">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G143" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>63</v>
+      <c r="A144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D144" s="6">
-        <v>7</v>
-      </c>
-      <c r="E144" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F144" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G144" s="9">
+        <v>65</v>
+      </c>
+      <c r="D144" s="2">
+        <v>1</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F144" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G144" s="5">
         <v>360</v>
       </c>
     </row>
@@ -3963,22 +3958,22 @@
         <v>7</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D145" s="2" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" s="2">
+        <v>2</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G145" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -3986,45 +3981,45 @@
         <v>7</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D146" s="6" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="D146" s="2">
+        <v>3</v>
       </c>
       <c r="E146" s="7" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F146" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G146" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>64</v>
+      <c r="A147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D147" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E147" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G147" s="9">
-        <v>180</v>
+        <v>65</v>
+      </c>
+      <c r="D147" s="2">
+        <v>4</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G147" s="5">
+        <v>360</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -4032,22 +4027,22 @@
         <v>7</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>18</v>
+        <v>65</v>
+      </c>
+      <c r="D148" s="2">
+        <v>5</v>
       </c>
       <c r="E148" s="7" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="F148" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G148" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -4055,16 +4050,16 @@
         <v>7</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F149" s="4" t="s">
         <v>12</v>
@@ -4078,16 +4073,16 @@
         <v>7</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E150" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="F150" s="8" t="s">
         <v>12</v>
@@ -4097,25 +4092,25 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="A151" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G151" s="5">
+        <v>66</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G151" s="9">
         <v>180</v>
       </c>
     </row>
@@ -4124,16 +4119,16 @@
         <v>7</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F152" s="8" t="s">
         <v>12</v>
@@ -4147,16 +4142,16 @@
         <v>7</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F153" s="4" t="s">
         <v>12</v>
@@ -4170,16 +4165,16 @@
         <v>7</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E154" s="7" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F154" s="8" t="s">
         <v>12</v>
@@ -4193,16 +4188,16 @@
         <v>7</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F155" s="4" t="s">
         <v>12</v>
@@ -4216,16 +4211,16 @@
         <v>7</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E156" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F156" s="8" t="s">
         <v>12</v>
@@ -4239,16 +4234,16 @@
         <v>7</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>12</v>
@@ -4262,22 +4257,22 @@
         <v>7</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D158" s="6">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="D158" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="E158" s="7" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="F158" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G158" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -4285,22 +4280,22 @@
         <v>7</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C159" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D159" s="2">
-        <v>2</v>
+        <v>61</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G159" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4308,22 +4303,22 @@
         <v>7</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D160" s="6">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D160" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E160" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F160" s="8" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G160" s="9">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -4331,44 +4326,44 @@
         <v>7</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D161" s="2">
-        <v>4</v>
+        <v>61</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G161" s="5">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>64</v>
+      <c r="A162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="C162" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D162" s="6">
-        <v>5</v>
-      </c>
-      <c r="E162" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F162" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G162" s="9">
+        <v>65</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G162" s="5">
         <v>360</v>
       </c>
     </row>
@@ -4377,19 +4372,19 @@
         <v>7</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C163" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D163" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G163" s="5">
         <v>360</v>
@@ -4400,19 +4395,19 @@
         <v>7</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C164" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D164" s="6">
-        <v>7</v>
+        <v>65</v>
+      </c>
+      <c r="D164" s="2">
+        <v>3</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F164" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G164" s="9">
         <v>360</v>
@@ -4423,22 +4418,22 @@
         <v>7</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D165" s="2" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" s="2">
+        <v>4</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G165" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -4446,44 +4441,44 @@
         <v>7</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D166" s="6" t="s">
-        <v>13</v>
+        <v>65</v>
+      </c>
+      <c r="D166" s="2">
+        <v>5</v>
       </c>
       <c r="E166" s="7" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F166" s="8" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G166" s="9">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D167" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E167" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F167" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G167" s="9">
+      <c r="A167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G167" s="5">
         <v>180</v>
       </c>
     </row>
@@ -4492,298 +4487,298 @@
         <v>7</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G168" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G169" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D170" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G170" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F171" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G171" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D172" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E168" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F168" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G168" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D169" s="2" t="s">
+      <c r="E172" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G172" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D173" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E169" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G169" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D170" s="6" t="s">
+      <c r="E173" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G173" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D174" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E170" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F170" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G170" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A171" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D171" s="2" t="s">
+      <c r="E174" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G174" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D175" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E171" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G171" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D172" s="6" t="s">
+      <c r="E175" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G175" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D176" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E172" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F172" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G172" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C173" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D173" s="2" t="s">
+      <c r="E176" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G176" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D177" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E173" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F173" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G173" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D174" s="6" t="s">
+      <c r="E177" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G177" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D178" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E174" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F174" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G174" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D175" s="2" t="s">
+      <c r="E178" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G178" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D179" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E175" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F175" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G175" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D176" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E176" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F176" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G176" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C177" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E177" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F177" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G177" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D178" s="6">
-        <v>1</v>
-      </c>
-      <c r="E178" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F178" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G178" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D179" s="2">
-        <v>2</v>
-      </c>
-      <c r="E179" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F179" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G179" s="5">
-        <v>360</v>
+      <c r="E179" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G179" s="9">
+        <v>180</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D180" s="6">
-        <v>3</v>
-      </c>
-      <c r="E180" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F180" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G180" s="9">
-        <v>360</v>
+      <c r="A180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D180" s="2">
+        <v>14</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G180" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -4791,136 +4786,136 @@
         <v>7</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D181" s="2">
+        <v>1</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G181" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D182" s="2">
+        <v>2</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G182" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="2">
+        <v>3</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G183" s="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D184" s="2">
         <v>4</v>
       </c>
-      <c r="E181" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G181" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D182" s="6">
+      <c r="E184" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G184" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D185" s="2">
         <v>5</v>
       </c>
-      <c r="E182" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F182" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G182" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D183" s="2">
-        <v>6</v>
-      </c>
-      <c r="E183" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F183" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G183" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D184" s="6">
-        <v>7</v>
-      </c>
-      <c r="E184" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F184" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G184" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D185" s="2" t="s">
+      <c r="E185" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G185" s="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D186" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E185" s="3" t="s">
+      <c r="E186" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F185" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G185" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D186" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E186" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G186" s="9">
+      <c r="F186" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G186" s="5">
         <v>180</v>
       </c>
     </row>
@@ -4929,298 +4924,298 @@
         <v>7</v>
       </c>
       <c r="B187" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D187" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G187" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D188" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C187" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D187" s="6" t="s">
+      <c r="E188" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G188" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D189" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E187" s="7" t="s">
+      <c r="E189" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G189" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G190" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D191" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G191" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E192" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F187" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G187" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A188" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D188" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E188" s="3" t="s">
+      <c r="F192" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G192" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D193" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E193" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F188" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G188" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A189" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D189" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E189" s="7" t="s">
+      <c r="F193" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G193" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E194" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="F189" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G189" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A190" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C190" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E190" s="3" t="s">
+      <c r="F194" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G194" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D195" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E195" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F190" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G190" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A191" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D191" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E191" s="7" t="s">
+      <c r="F195" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G195" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B196" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C196" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E196" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F191" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G191" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A192" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C192" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D192" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E192" s="3" t="s">
+      <c r="F196" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E197" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F192" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G192" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A193" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D193" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E193" s="7" t="s">
+      <c r="F197" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G197" s="5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E198" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F193" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G193" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A194" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C194" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E194" s="3" t="s">
+      <c r="F198" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G198" s="9">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" s="2">
+        <v>14</v>
+      </c>
+      <c r="E199" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F194" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G194" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A195" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D195" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E195" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F195" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G195" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A196" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C196" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E196" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G196" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A197" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D197" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E197" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F197" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G197" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A198" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C198" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D198" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E198" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F198" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G198" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A199" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D199" s="6">
-        <v>1</v>
-      </c>
-      <c r="E199" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F199" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G199" s="9">
-        <v>360</v>
+      <c r="F199" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G199" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -5228,159 +5223,159 @@
         <v>7</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D200" s="2">
+        <v>1</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F200" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G200" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D201" s="2">
         <v>2</v>
       </c>
-      <c r="E200" s="3" t="s">
+      <c r="E201" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F201" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G201" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A202" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D202" s="2">
+        <v>3</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G202" s="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D203" s="2">
+        <v>4</v>
+      </c>
+      <c r="E203" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F200" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G200" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A201" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D201" s="6">
-        <v>3</v>
-      </c>
-      <c r="E201" s="7" t="s">
+      <c r="F203" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G203" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A204" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D204" s="2">
+        <v>5</v>
+      </c>
+      <c r="E204" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F201" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G201" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A202" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D202" s="2">
-        <v>4</v>
-      </c>
-      <c r="E202" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F202" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G202" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D203" s="6">
-        <v>5</v>
-      </c>
-      <c r="E203" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F203" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G203" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C204" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D204" s="2">
-        <v>6</v>
-      </c>
-      <c r="E204" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F204" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G204" s="5">
+      <c r="F204" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G204" s="9">
         <v>360</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A205" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D205" s="6">
-        <v>7</v>
-      </c>
-      <c r="E205" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F205" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G205" s="9">
-        <v>360</v>
+      <c r="A205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G205" s="5">
+        <v>180</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D206" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E206" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F206" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G206" s="5">
+      <c r="A206" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C206" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D206" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G206" s="9">
         <v>180</v>
       </c>
     </row>
@@ -5389,16 +5384,16 @@
         <v>7</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D207" s="6" t="s">
-        <v>13</v>
+      <c r="D207" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E207" s="7" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="F207" s="8" t="s">
         <v>12</v>
@@ -5408,255 +5403,255 @@
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C208" s="6" t="s">
+      <c r="A208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E208" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F208" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G208" s="9">
+      <c r="E208" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G208" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A209" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C209" s="2" t="s">
+      <c r="A209" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E209" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F209" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G209" s="5">
+      <c r="E209" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G209" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C210" s="6" t="s">
+      <c r="A210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E210" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F210" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G210" s="9">
+      <c r="E210" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G210" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C211" s="2" t="s">
+      <c r="A211" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E211" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F211" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G211" s="5">
+      <c r="E211" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G211" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C212" s="6" t="s">
+      <c r="A212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E212" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F212" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G212" s="9">
+      <c r="E212" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G212" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C213" s="2" t="s">
+      <c r="A213" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E213" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F213" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G213" s="5">
+      <c r="E213" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G213" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C214" s="6" t="s">
+      <c r="A214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F214" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G214" s="9">
+      <c r="E214" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G214" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C215" s="2" t="s">
+      <c r="A215" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E215" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F215" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G215" s="5">
+      <c r="E215" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F215" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G215" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C216" s="6" t="s">
+      <c r="A216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E216" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F216" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G216" s="9">
+      <c r="E216" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G216" s="5">
         <v>180</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C217" s="2" t="s">
+      <c r="A217" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E217" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F217" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G217" s="5">
+      <c r="E217" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F217" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G217" s="9">
         <v>180</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E218" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F218" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G218" s="9">
+      <c r="A218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D218" s="2">
+        <v>14</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G218" s="5">
         <v>180</v>
       </c>
     </row>
@@ -5665,669 +5660,118 @@
         <v>7</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D219" s="2" t="s">
-        <v>36</v>
+        <v>64</v>
+      </c>
+      <c r="C219" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D219" s="2">
+        <v>1</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F219" s="4" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="G219" s="5">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A220" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>67</v>
+      <c r="A220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D220" s="6">
-        <v>1</v>
-      </c>
-      <c r="E220" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D220" s="2">
+        <v>2</v>
+      </c>
+      <c r="E220" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F220" s="8" t="s">
+      <c r="F220" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G220" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A221" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B221" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C221" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D221" s="2">
+        <v>3</v>
+      </c>
+      <c r="E221" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G220" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A221" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C221" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D221" s="2">
-        <v>2</v>
-      </c>
-      <c r="E221" s="3" t="s">
+      <c r="F221" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G221" s="9">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D222" s="2">
+        <v>4</v>
+      </c>
+      <c r="E222" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F221" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G221" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A222" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C222" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D222" s="6">
-        <v>3</v>
-      </c>
-      <c r="E222" s="7" t="s">
+      <c r="F222" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G222" s="5">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A223" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D223" s="2">
+        <v>5</v>
+      </c>
+      <c r="E223" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F222" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G222" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A223" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D223" s="2">
-        <v>4</v>
-      </c>
-      <c r="E223" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F223" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G223" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A224" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D224" s="6">
-        <v>5</v>
-      </c>
-      <c r="E224" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F224" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G224" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A225" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D225" s="2">
-        <v>6</v>
-      </c>
-      <c r="E225" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F225" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G225" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A226" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B226" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C226" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D226" s="6">
-        <v>7</v>
-      </c>
-      <c r="E226" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F226" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G226" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A227" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D227" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E227" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F227" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G227" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A228" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E228" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F228" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G228" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A229" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B229" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D229" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E229" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F229" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G229" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A230" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D230" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E230" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F230" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G230" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A231" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C231" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E231" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F231" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G231" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A232" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D232" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E232" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F232" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G232" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A233" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F233" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G233" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A234" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E234" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F234" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G234" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A235" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F235" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G235" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A236" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D236" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E236" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F236" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G236" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A237" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B237" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C237" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E237" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F237" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G237" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A238" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D238" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E238" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F238" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G238" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A239" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B239" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C239" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F239" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G239" s="9">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A240" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B240" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D240" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E240" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F240" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G240" s="5">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A241" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B241" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D241" s="6">
-        <v>1</v>
-      </c>
-      <c r="E241" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F241" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G241" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A242" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B242" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D242" s="2">
-        <v>2</v>
-      </c>
-      <c r="E242" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F242" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G242" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A243" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D243" s="6">
-        <v>3</v>
-      </c>
-      <c r="E243" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F243" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G243" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D244" s="2">
-        <v>4</v>
-      </c>
-      <c r="E244" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F244" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G244" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A245" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D245" s="6">
-        <v>5</v>
-      </c>
-      <c r="E245" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F245" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G245" s="9">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A246" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C246" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D246" s="2">
-        <v>6</v>
-      </c>
-      <c r="E246" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="F246" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G246" s="5">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A247" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B247" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C247" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D247" s="6">
-        <v>7</v>
-      </c>
-      <c r="E247" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F247" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G247" s="9">
+      <c r="F223" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G223" s="9">
         <v>360</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" alignment="center"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
+++ b/modules_schedules/Y5_B2526_General_&_Special_Surgery_2_B1_schedule.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -530,24 +530,26 @@
       </c>
       <c r="C2" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G2" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -563,24 +565,26 @@
       </c>
       <c r="C3" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D3" s="6" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D3" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E3" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F3" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G3" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4">
@@ -596,24 +600,26 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>14/12/2025</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G4" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5">
@@ -629,24 +635,26 @@
       </c>
       <c r="C5" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D5" s="6" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D5" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E5" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
+          <t>21/12/2025</t>
         </is>
       </c>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G5" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6">
@@ -662,22 +670,26 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>0.4166666666666667</v>
+          <t>22/12/2025</t>
+        </is>
+      </c>
+      <c r="F6" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G6" s="5" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -693,24 +705,26 @@
       </c>
       <c r="C7" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D7" s="6" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E7" s="7" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>28/12/2025</t>
         </is>
       </c>
       <c r="F7" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G7" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -726,24 +740,26 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="n">
-        <v>7</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G8" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
@@ -759,24 +775,26 @@
       </c>
       <c r="C9" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D9" s="6" t="n">
-        <v>8</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D9" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E9" s="7" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="F9" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G9" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
@@ -797,12 +815,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
@@ -832,12 +850,12 @@
       </c>
       <c r="D11" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E11" s="7" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="F11" s="8" t="inlineStr">
@@ -867,12 +885,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -902,12 +920,12 @@
       </c>
       <c r="D13" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E13" s="7" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="F13" s="8" t="inlineStr">
@@ -937,12 +955,12 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
@@ -967,26 +985,24 @@
       </c>
       <c r="C15" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D15" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E15" s="7" t="inlineStr">
         <is>
-          <t>22/12/2025</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F15" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G15" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
@@ -1002,26 +1018,24 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>28/12/2025</t>
+          <t>27/12/2025</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G16" s="5" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
@@ -1037,26 +1051,22 @@
       </c>
       <c r="C17" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D17" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="E17" s="7" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F17" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G17" s="9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -1072,26 +1082,24 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>04/01/2026</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G18" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="19">
@@ -1107,26 +1115,24 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D19" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="E19" s="7" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F19" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G19" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20">
@@ -1142,26 +1148,24 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G20" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="21">
@@ -1172,7 +1176,7 @@
       </c>
       <c r="B21" s="6" t="inlineStr">
         <is>
-          <t>B1-1</t>
+          <t>B1-10</t>
         </is>
       </c>
       <c r="C21" s="6" t="inlineStr">
@@ -1182,12 +1186,12 @@
       </c>
       <c r="D21" s="6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E21" s="7" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F21" s="8" t="inlineStr">
@@ -1207,7 +1211,7 @@
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>B1-1</t>
+          <t>B1-10</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
@@ -1217,12 +1221,12 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
@@ -1242,7 +1246,7 @@
       </c>
       <c r="B23" s="6" t="inlineStr">
         <is>
-          <t>B1-1</t>
+          <t>B1-10</t>
         </is>
       </c>
       <c r="C23" s="6" t="inlineStr">
@@ -1252,12 +1256,12 @@
       </c>
       <c r="D23" s="6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E23" s="7" t="inlineStr">
         <is>
-          <t>21/01/2026</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="F23" s="8" t="inlineStr">
@@ -1282,24 +1286,26 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G24" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25">
@@ -1315,24 +1321,26 @@
       </c>
       <c r="C25" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D25" s="6" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D25" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E25" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>23/12/2025</t>
         </is>
       </c>
       <c r="F25" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G25" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26">
@@ -1348,24 +1356,26 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G26" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27">
@@ -1381,24 +1391,26 @@
       </c>
       <c r="C27" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D27" s="6" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D27" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E27" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
+          <t>30/12/2025</t>
         </is>
       </c>
       <c r="F27" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G27" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28">
@@ -1414,22 +1426,26 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F28" s="4" t="n">
-        <v>0.4166666666666667</v>
+          <t>31/12/2025</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G28" s="5" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29">
@@ -1445,24 +1461,26 @@
       </c>
       <c r="C29" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D29" s="6" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D29" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E29" s="7" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="F29" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G29" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30">
@@ -1478,24 +1496,26 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>7</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>07/01/2026</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G30" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31">
@@ -1511,24 +1531,26 @@
       </c>
       <c r="C31" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D31" s="6" t="n">
-        <v>8</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D31" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E31" s="7" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>11/01/2026</t>
         </is>
       </c>
       <c r="F31" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G31" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32">
@@ -1547,12 +1569,14 @@
           <t>general surgery</t>
         </is>
       </c>
-      <c r="D32" s="2" t="n">
-        <v>1</v>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>12/01/2026</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
@@ -1582,12 +1606,12 @@
       </c>
       <c r="D33" s="6" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E33" s="7" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>18/01/2026</t>
         </is>
       </c>
       <c r="F33" s="8" t="inlineStr">
@@ -1615,14 +1639,12 @@
           <t>general surgery</t>
         </is>
       </c>
-      <c r="D34" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="D34" s="2" t="n">
+        <v>14</v>
       </c>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>19/01/2026</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
@@ -1647,26 +1669,24 @@
       </c>
       <c r="C35" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D35" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D35" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E35" s="7" t="inlineStr">
         <is>
-          <t>16/12/2025</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F35" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G35" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36">
@@ -1682,26 +1702,24 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D36" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E36" s="3" t="inlineStr">
         <is>
-          <t>17/12/2025</t>
+          <t>27/12/2025</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G36" s="5" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37">
@@ -1717,26 +1735,22 @@
       </c>
       <c r="C37" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D37" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="E37" s="7" t="inlineStr">
         <is>
-          <t>23/12/2025</t>
-        </is>
-      </c>
-      <c r="F37" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F37" s="8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G37" s="9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
@@ -1752,26 +1766,24 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D38" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E38" s="3" t="inlineStr">
         <is>
-          <t>24/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G38" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
@@ -1787,26 +1799,24 @@
       </c>
       <c r="C39" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D39" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="E39" s="7" t="inlineStr">
         <is>
-          <t>30/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F39" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G39" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="40">
@@ -1822,26 +1832,24 @@
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G40" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="41">
@@ -1852,7 +1860,7 @@
       </c>
       <c r="B41" s="6" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-11</t>
         </is>
       </c>
       <c r="C41" s="6" t="inlineStr">
@@ -1862,12 +1870,12 @@
       </c>
       <c r="D41" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E41" s="7" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F41" s="8" t="inlineStr">
@@ -1887,7 +1895,7 @@
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-11</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
@@ -1897,12 +1905,12 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>07/01/2026</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
@@ -1922,7 +1930,7 @@
       </c>
       <c r="B43" s="6" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-11</t>
         </is>
       </c>
       <c r="C43" s="6" t="inlineStr">
@@ -1932,12 +1940,12 @@
       </c>
       <c r="D43" s="6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E43" s="7" t="inlineStr">
         <is>
-          <t>11/01/2026</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="F43" s="8" t="inlineStr">
@@ -1957,7 +1965,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-11</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -1967,12 +1975,12 @@
       </c>
       <c r="D44" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>12/01/2026</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
@@ -1992,7 +2000,7 @@
       </c>
       <c r="B45" s="6" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-11</t>
         </is>
       </c>
       <c r="C45" s="6" t="inlineStr">
@@ -2002,12 +2010,12 @@
       </c>
       <c r="D45" s="6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E45" s="7" t="inlineStr">
         <is>
-          <t>18/01/2026</t>
+          <t>23/12/2025</t>
         </is>
       </c>
       <c r="F45" s="8" t="inlineStr">
@@ -2027,7 +2035,7 @@
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>B1-10</t>
+          <t>B1-11</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr">
@@ -2037,12 +2045,12 @@
       </c>
       <c r="D46" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>19/01/2026</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
@@ -2067,24 +2075,26 @@
       </c>
       <c r="C47" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D47" s="6" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D47" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E47" s="7" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>30/12/2025</t>
         </is>
       </c>
       <c r="F47" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G47" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48">
@@ -2100,24 +2110,26 @@
       </c>
       <c r="C48" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G48" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49">
@@ -2133,24 +2145,26 @@
       </c>
       <c r="C49" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D49" s="6" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D49" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E49" s="7" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="F49" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G49" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50">
@@ -2166,22 +2180,26 @@
       </c>
       <c r="C50" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F50" s="4" t="n">
-        <v>0.3541666666666667</v>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F50" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G50" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51">
@@ -2197,22 +2215,26 @@
       </c>
       <c r="C51" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D51" s="6" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D51" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E51" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F51" s="8" t="n">
-        <v>0.4166666666666667</v>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F51" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G51" s="9" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="52">
@@ -2228,24 +2250,26 @@
       </c>
       <c r="C52" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D52" s="2" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>12/01/2026</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G52" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="53">
@@ -2261,24 +2285,26 @@
       </c>
       <c r="C53" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D53" s="6" t="n">
-        <v>7</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D53" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E53" s="7" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>18/01/2026</t>
         </is>
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G53" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="54">
@@ -2294,24 +2320,24 @@
       </c>
       <c r="C54" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
+          <t>general surgery</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>19/01/2026</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G54" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55">
@@ -2327,26 +2353,24 @@
       </c>
       <c r="C55" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D55" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D55" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E55" s="7" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F55" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G55" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56">
@@ -2362,26 +2386,22 @@
       </c>
       <c r="C56" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
-        </is>
-      </c>
-      <c r="F56" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F56" s="4" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G56" s="5" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="57">
@@ -2397,26 +2417,22 @@
       </c>
       <c r="C57" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D57" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D57" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="E57" s="7" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
-        </is>
-      </c>
-      <c r="F57" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F57" s="8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G57" s="9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58">
@@ -2432,26 +2448,24 @@
       </c>
       <c r="C58" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D58" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>16/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G58" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="59">
@@ -2467,26 +2481,24 @@
       </c>
       <c r="C59" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D59" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D59" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="E59" s="7" t="inlineStr">
         <is>
-          <t>17/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F59" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G59" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60">
@@ -2502,26 +2514,24 @@
       </c>
       <c r="C60" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D60" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>23/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G60" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="61">
@@ -2532,7 +2542,7 @@
       </c>
       <c r="B61" s="6" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C61" s="6" t="inlineStr">
@@ -2542,12 +2552,12 @@
       </c>
       <c r="D61" s="6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E61" s="7" t="inlineStr">
         <is>
-          <t>24/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F61" s="8" t="inlineStr">
@@ -2567,7 +2577,7 @@
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
@@ -2577,12 +2587,12 @@
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>30/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
@@ -2602,7 +2612,7 @@
       </c>
       <c r="B63" s="6" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C63" s="6" t="inlineStr">
@@ -2612,12 +2622,12 @@
       </c>
       <c r="D63" s="6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E63" s="7" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="F63" s="8" t="inlineStr">
@@ -2637,7 +2647,7 @@
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
@@ -2647,12 +2657,12 @@
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
@@ -2672,7 +2682,7 @@
       </c>
       <c r="B65" s="6" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C65" s="6" t="inlineStr">
@@ -2682,12 +2692,12 @@
       </c>
       <c r="D65" s="6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E65" s="7" t="inlineStr">
         <is>
-          <t>07/01/2026</t>
+          <t>23/12/2025</t>
         </is>
       </c>
       <c r="F65" s="8" t="inlineStr">
@@ -2707,7 +2717,7 @@
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr">
@@ -2717,12 +2727,12 @@
       </c>
       <c r="D66" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>11/01/2026</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
@@ -2742,7 +2752,7 @@
       </c>
       <c r="B67" s="6" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C67" s="6" t="inlineStr">
@@ -2752,12 +2762,12 @@
       </c>
       <c r="D67" s="6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E67" s="7" t="inlineStr">
         <is>
-          <t>12/01/2026</t>
+          <t>30/12/2025</t>
         </is>
       </c>
       <c r="F67" s="8" t="inlineStr">
@@ -2777,7 +2787,7 @@
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr">
@@ -2787,12 +2797,12 @@
       </c>
       <c r="D68" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>18/01/2026</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
@@ -2812,7 +2822,7 @@
       </c>
       <c r="B69" s="6" t="inlineStr">
         <is>
-          <t>B1-11</t>
+          <t>B1-12</t>
         </is>
       </c>
       <c r="C69" s="6" t="inlineStr">
@@ -2822,12 +2832,12 @@
       </c>
       <c r="D69" s="6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E69" s="7" t="inlineStr">
         <is>
-          <t>19/01/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="F69" s="8" t="inlineStr">
@@ -2852,24 +2862,26 @@
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>07/01/2026</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G70" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71">
@@ -2885,24 +2897,26 @@
       </c>
       <c r="C71" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D71" s="6" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D71" s="6" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E71" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>11/01/2026</t>
         </is>
       </c>
       <c r="F71" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G71" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="72">
@@ -2918,24 +2932,26 @@
       </c>
       <c r="C72" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>12/01/2026</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G72" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="73">
@@ -2951,22 +2967,26 @@
       </c>
       <c r="C73" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D73" s="6" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D73" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E73" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F73" s="8" t="n">
-        <v>0.3541666666666667</v>
+          <t>18/01/2026</t>
+        </is>
+      </c>
+      <c r="F73" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G73" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="74">
@@ -2982,22 +3002,24 @@
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
+          <t>general surgery</t>
         </is>
       </c>
       <c r="D74" s="2" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F74" s="4" t="n">
-        <v>0.4166666666666667</v>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F74" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G74" s="5" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="75">
@@ -3017,11 +3039,11 @@
         </is>
       </c>
       <c r="D75" s="6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E75" s="7" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F75" s="8" t="inlineStr">
@@ -3050,20 +3072,18 @@
         </is>
       </c>
       <c r="D76" s="2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
-        </is>
-      </c>
-      <c r="F76" s="4" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F76" s="4" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G76" s="5" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77">
@@ -3083,20 +3103,18 @@
         </is>
       </c>
       <c r="D77" s="6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E77" s="7" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
-        </is>
-      </c>
-      <c r="F77" s="8" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F77" s="8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G77" s="9" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
@@ -3112,26 +3130,24 @@
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D78" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G78" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="79">
@@ -3147,26 +3163,24 @@
       </c>
       <c r="C79" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D79" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D79" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="E79" s="7" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F79" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G79" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80">
@@ -3182,26 +3196,24 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G80" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="81">
@@ -3212,7 +3224,7 @@
       </c>
       <c r="B81" s="6" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C81" s="6" t="inlineStr">
@@ -3222,12 +3234,12 @@
       </c>
       <c r="D81" s="6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E81" s="7" t="inlineStr">
         <is>
-          <t>16/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F81" s="8" t="inlineStr">
@@ -3247,7 +3259,7 @@
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr">
@@ -3257,12 +3269,12 @@
       </c>
       <c r="D82" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>17/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
@@ -3282,7 +3294,7 @@
       </c>
       <c r="B83" s="6" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C83" s="6" t="inlineStr">
@@ -3292,12 +3304,12 @@
       </c>
       <c r="D83" s="6" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E83" s="7" t="inlineStr">
         <is>
-          <t>23/12/2025</t>
+          <t>14/12/2025</t>
         </is>
       </c>
       <c r="F83" s="8" t="inlineStr">
@@ -3317,7 +3329,7 @@
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr">
@@ -3327,12 +3339,12 @@
       </c>
       <c r="D84" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E84" s="3" t="inlineStr">
         <is>
-          <t>24/12/2025</t>
+          <t>21/12/2025</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
@@ -3352,7 +3364,7 @@
       </c>
       <c r="B85" s="6" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C85" s="6" t="inlineStr">
@@ -3362,12 +3374,12 @@
       </c>
       <c r="D85" s="6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E85" s="7" t="inlineStr">
         <is>
-          <t>30/12/2025</t>
+          <t>22/12/2025</t>
         </is>
       </c>
       <c r="F85" s="8" t="inlineStr">
@@ -3387,7 +3399,7 @@
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr">
@@ -3397,12 +3409,12 @@
       </c>
       <c r="D86" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
+          <t>28/12/2025</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
@@ -3422,7 +3434,7 @@
       </c>
       <c r="B87" s="6" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C87" s="6" t="inlineStr">
@@ -3432,12 +3444,12 @@
       </c>
       <c r="D87" s="6" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E87" s="7" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="F87" s="8" t="inlineStr">
@@ -3457,7 +3469,7 @@
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr">
@@ -3467,12 +3479,12 @@
       </c>
       <c r="D88" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>07/01/2026</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
@@ -3492,7 +3504,7 @@
       </c>
       <c r="B89" s="6" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C89" s="6" t="inlineStr">
@@ -3502,12 +3514,12 @@
       </c>
       <c r="D89" s="6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E89" s="7" t="inlineStr">
         <is>
-          <t>11/01/2026</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="F89" s="8" t="inlineStr">
@@ -3527,7 +3539,7 @@
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
@@ -3537,12 +3549,12 @@
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>12/01/2026</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
@@ -3562,7 +3574,7 @@
       </c>
       <c r="B91" s="6" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C91" s="6" t="inlineStr">
@@ -3572,12 +3584,12 @@
       </c>
       <c r="D91" s="6" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E91" s="7" t="inlineStr">
         <is>
-          <t>18/01/2026</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="F91" s="8" t="inlineStr">
@@ -3597,7 +3609,7 @@
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>B1-12</t>
+          <t>B1-2</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr">
@@ -3607,12 +3619,12 @@
       </c>
       <c r="D92" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>19/01/2026</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
@@ -3637,24 +3649,26 @@
       </c>
       <c r="C93" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D93" s="6" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D93" s="6" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E93" s="7" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="F93" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G93" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="94">
@@ -3674,7 +3688,7 @@
         </is>
       </c>
       <c r="D94" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
@@ -3707,20 +3721,18 @@
         </is>
       </c>
       <c r="D95" s="6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E95" s="7" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
-        </is>
-      </c>
-      <c r="F95" s="8" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F95" s="8" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G95" s="9" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96">
@@ -3740,7 +3752,7 @@
         </is>
       </c>
       <c r="D96" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E96" s="3" t="inlineStr">
         <is>
@@ -3748,10 +3760,10 @@
         </is>
       </c>
       <c r="F96" s="4" t="n">
-        <v>0.3541666666666667</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="G96" s="5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="97">
@@ -3771,18 +3783,20 @@
         </is>
       </c>
       <c r="D97" s="6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E97" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F97" s="8" t="n">
-        <v>0.4166666666666667</v>
+          <t>03/01/2026</t>
+        </is>
+      </c>
+      <c r="F97" s="8" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
       </c>
       <c r="G97" s="9" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98">
@@ -3802,11 +3816,11 @@
         </is>
       </c>
       <c r="D98" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
@@ -3835,11 +3849,11 @@
         </is>
       </c>
       <c r="D99" s="6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E99" s="7" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F99" s="8" t="inlineStr">
@@ -3859,29 +3873,31 @@
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>8</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G100" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="101">
@@ -3892,7 +3908,7 @@
       </c>
       <c r="B101" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C101" s="6" t="inlineStr">
@@ -3902,12 +3918,12 @@
       </c>
       <c r="D101" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E101" s="7" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F101" s="8" t="inlineStr">
@@ -3927,7 +3943,7 @@
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr">
@@ -3937,12 +3953,12 @@
       </c>
       <c r="D102" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>14/12/2025</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
@@ -3962,7 +3978,7 @@
       </c>
       <c r="B103" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C103" s="6" t="inlineStr">
@@ -3972,12 +3988,12 @@
       </c>
       <c r="D103" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E103" s="7" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>21/12/2025</t>
         </is>
       </c>
       <c r="F103" s="8" t="inlineStr">
@@ -3997,7 +4013,7 @@
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr">
@@ -4007,12 +4023,12 @@
       </c>
       <c r="D104" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
+          <t>22/12/2025</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
@@ -4032,7 +4048,7 @@
       </c>
       <c r="B105" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C105" s="6" t="inlineStr">
@@ -4042,12 +4058,12 @@
       </c>
       <c r="D105" s="6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E105" s="7" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
+          <t>28/12/2025</t>
         </is>
       </c>
       <c r="F105" s="8" t="inlineStr">
@@ -4067,7 +4083,7 @@
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr">
@@ -4077,12 +4093,12 @@
       </c>
       <c r="D106" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>22/12/2025</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
@@ -4102,7 +4118,7 @@
       </c>
       <c r="B107" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C107" s="6" t="inlineStr">
@@ -4112,12 +4128,12 @@
       </c>
       <c r="D107" s="6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E107" s="7" t="inlineStr">
         <is>
-          <t>28/12/2025</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="F107" s="8" t="inlineStr">
@@ -4137,7 +4153,7 @@
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr">
@@ -4147,12 +4163,12 @@
       </c>
       <c r="D108" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
@@ -4172,7 +4188,7 @@
       </c>
       <c r="B109" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C109" s="6" t="inlineStr">
@@ -4182,12 +4198,12 @@
       </c>
       <c r="D109" s="6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E109" s="7" t="inlineStr">
         <is>
-          <t>04/01/2026</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="F109" s="8" t="inlineStr">
@@ -4207,7 +4223,7 @@
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
@@ -4217,12 +4233,12 @@
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
@@ -4242,7 +4258,7 @@
       </c>
       <c r="B111" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C111" s="6" t="inlineStr">
@@ -4252,12 +4268,12 @@
       </c>
       <c r="D111" s="6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E111" s="7" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="F111" s="8" t="inlineStr">
@@ -4277,7 +4293,7 @@
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -4287,12 +4303,12 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E112" s="3" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
@@ -4312,31 +4328,29 @@
       </c>
       <c r="B113" s="6" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C113" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D113" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D113" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E113" s="7" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F113" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G113" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="114">
@@ -4347,31 +4361,27 @@
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>B1-2</t>
+          <t>B1-3</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D114" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E114" s="3" t="inlineStr">
         <is>
-          <t>21/01/2026</t>
-        </is>
-      </c>
-      <c r="F114" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F114" s="4" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G114" s="5" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115">
@@ -4391,20 +4401,18 @@
         </is>
       </c>
       <c r="D115" s="6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115" s="7" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
-        </is>
-      </c>
-      <c r="F115" s="8" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F115" s="8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G115" s="9" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="116">
@@ -4424,11 +4432,11 @@
         </is>
       </c>
       <c r="D116" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E116" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F116" s="4" t="inlineStr">
@@ -4457,11 +4465,11 @@
         </is>
       </c>
       <c r="D117" s="6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E117" s="7" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F117" s="8" t="inlineStr">
@@ -4490,18 +4498,20 @@
         </is>
       </c>
       <c r="D118" s="2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E118" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F118" s="4" t="n">
-        <v>0.3541666666666667</v>
+          <t>17/01/2026</t>
+        </is>
+      </c>
+      <c r="F118" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
       </c>
       <c r="G118" s="5" t="n">
-        <v>90</v>
+        <v>360</v>
       </c>
     </row>
     <row r="119">
@@ -4512,27 +4522,31 @@
       </c>
       <c r="B119" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C119" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D119" s="6" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D119" s="6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E119" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F119" s="8" t="n">
-        <v>0.4166666666666667</v>
+          <t>07/12/2025</t>
+        </is>
+      </c>
+      <c r="F119" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G119" s="9" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="120">
@@ -4543,29 +4557,31 @@
       </c>
       <c r="B120" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C120" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E120" s="3" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F120" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G120" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="121">
@@ -4576,29 +4592,31 @@
       </c>
       <c r="B121" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C121" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D121" s="6" t="n">
-        <v>7</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D121" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E121" s="7" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>14/12/2025</t>
         </is>
       </c>
       <c r="F121" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G121" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="122">
@@ -4609,29 +4627,31 @@
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D122" s="2" t="n">
-        <v>8</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E122" s="3" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>21/12/2025</t>
         </is>
       </c>
       <c r="F122" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G122" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123">
@@ -4642,7 +4662,7 @@
       </c>
       <c r="B123" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C123" s="6" t="inlineStr">
@@ -4652,12 +4672,12 @@
       </c>
       <c r="D123" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E123" s="7" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>22/12/2025</t>
         </is>
       </c>
       <c r="F123" s="8" t="inlineStr">
@@ -4677,7 +4697,7 @@
       </c>
       <c r="B124" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C124" s="2" t="inlineStr">
@@ -4687,12 +4707,12 @@
       </c>
       <c r="D124" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E124" s="3" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>28/12/2025</t>
         </is>
       </c>
       <c r="F124" s="4" t="inlineStr">
@@ -4712,7 +4732,7 @@
       </c>
       <c r="B125" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C125" s="6" t="inlineStr">
@@ -4722,12 +4742,12 @@
       </c>
       <c r="D125" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E125" s="7" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="F125" s="8" t="inlineStr">
@@ -4747,7 +4767,7 @@
       </c>
       <c r="B126" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C126" s="2" t="inlineStr">
@@ -4757,12 +4777,12 @@
       </c>
       <c r="D126" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E126" s="3" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="F126" s="4" t="inlineStr">
@@ -4782,7 +4802,7 @@
       </c>
       <c r="B127" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C127" s="6" t="inlineStr">
@@ -4792,12 +4812,12 @@
       </c>
       <c r="D127" s="6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E127" s="7" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="F127" s="8" t="inlineStr">
@@ -4817,7 +4837,7 @@
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
@@ -4827,12 +4847,12 @@
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E128" s="3" t="inlineStr">
         <is>
-          <t>22/12/2025</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="F128" s="4" t="inlineStr">
@@ -4852,7 +4872,7 @@
       </c>
       <c r="B129" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C129" s="6" t="inlineStr">
@@ -4862,12 +4882,12 @@
       </c>
       <c r="D129" s="6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E129" s="7" t="inlineStr">
         <is>
-          <t>28/12/2025</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="F129" s="8" t="inlineStr">
@@ -4887,7 +4907,7 @@
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
@@ -4897,12 +4917,12 @@
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E130" s="3" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="F130" s="4" t="inlineStr">
@@ -4922,7 +4942,7 @@
       </c>
       <c r="B131" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C131" s="6" t="inlineStr">
@@ -4932,12 +4952,12 @@
       </c>
       <c r="D131" s="6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E131" s="7" t="inlineStr">
         <is>
-          <t>04/01/2026</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="F131" s="8" t="inlineStr">
@@ -4957,31 +4977,29 @@
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D132" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E132" s="3" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F132" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G132" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="133">
@@ -4992,31 +5010,27 @@
       </c>
       <c r="B133" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C133" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D133" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D133" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E133" s="7" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
-        </is>
-      </c>
-      <c r="F133" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F133" s="8" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G133" s="9" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134">
@@ -5027,31 +5041,27 @@
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E134" s="3" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
-        </is>
-      </c>
-      <c r="F134" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F134" s="4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G134" s="5" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="135">
@@ -5062,31 +5072,29 @@
       </c>
       <c r="B135" s="6" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C135" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D135" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D135" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E135" s="7" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F135" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G135" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="136">
@@ -5097,31 +5105,29 @@
       </c>
       <c r="B136" s="2" t="inlineStr">
         <is>
-          <t>B1-3</t>
+          <t>B1-4</t>
         </is>
       </c>
       <c r="C136" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D136" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E136" s="3" t="inlineStr">
         <is>
-          <t>21/01/2026</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F136" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G136" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="137">
@@ -5141,11 +5147,11 @@
         </is>
       </c>
       <c r="D137" s="6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E137" s="7" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F137" s="8" t="inlineStr">
@@ -5165,29 +5171,31 @@
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="E138" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F138" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G138" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139">
@@ -5198,29 +5206,31 @@
       </c>
       <c r="B139" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C139" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D139" s="6" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D139" s="6" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
       </c>
       <c r="E139" s="7" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F139" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G139" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140">
@@ -5231,27 +5241,31 @@
       </c>
       <c r="B140" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C140" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E140" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F140" s="4" t="n">
-        <v>0.3541666666666667</v>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="F140" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G140" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141">
@@ -5262,27 +5276,31 @@
       </c>
       <c r="B141" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C141" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D141" s="6" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D141" s="6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E141" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F141" s="8" t="n">
-        <v>0.4166666666666667</v>
+          <t>21/12/2025</t>
+        </is>
+      </c>
+      <c r="F141" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G141" s="9" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142">
@@ -5293,29 +5311,31 @@
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D142" s="2" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E142" s="3" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>22/12/2025</t>
         </is>
       </c>
       <c r="F142" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G142" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143">
@@ -5326,29 +5346,31 @@
       </c>
       <c r="B143" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C143" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D143" s="6" t="n">
-        <v>7</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D143" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E143" s="7" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>28/12/2025</t>
         </is>
       </c>
       <c r="F143" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G143" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144">
@@ -5359,29 +5381,31 @@
       </c>
       <c r="B144" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C144" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>8</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E144" s="3" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>29/12/2025</t>
         </is>
       </c>
       <c r="F144" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G144" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145">
@@ -5392,7 +5416,7 @@
       </c>
       <c r="B145" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C145" s="6" t="inlineStr">
@@ -5402,12 +5426,12 @@
       </c>
       <c r="D145" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E145" s="7" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="F145" s="8" t="inlineStr">
@@ -5427,7 +5451,7 @@
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
@@ -5437,12 +5461,12 @@
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E146" s="3" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="F146" s="4" t="inlineStr">
@@ -5462,7 +5486,7 @@
       </c>
       <c r="B147" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C147" s="6" t="inlineStr">
@@ -5472,12 +5496,12 @@
       </c>
       <c r="D147" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E147" s="7" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="F147" s="8" t="inlineStr">
@@ -5497,7 +5521,7 @@
       </c>
       <c r="B148" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C148" s="2" t="inlineStr">
@@ -5507,12 +5531,12 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E148" s="3" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="F148" s="4" t="inlineStr">
@@ -5532,7 +5556,7 @@
       </c>
       <c r="B149" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C149" s="6" t="inlineStr">
@@ -5542,12 +5566,12 @@
       </c>
       <c r="D149" s="6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E149" s="7" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="F149" s="8" t="inlineStr">
@@ -5567,7 +5591,7 @@
       </c>
       <c r="B150" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C150" s="2" t="inlineStr">
@@ -5577,12 +5601,12 @@
       </c>
       <c r="D150" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E150" s="3" t="inlineStr">
         <is>
-          <t>22/12/2025</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="F150" s="4" t="inlineStr">
@@ -5602,31 +5626,29 @@
       </c>
       <c r="B151" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C151" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D151" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D151" s="6" t="n">
+        <v>1</v>
       </c>
       <c r="E151" s="7" t="inlineStr">
         <is>
-          <t>28/12/2025</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F151" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G151" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="152">
@@ -5637,31 +5659,27 @@
       </c>
       <c r="B152" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C152" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D152" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>2</v>
       </c>
       <c r="E152" s="3" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
-        </is>
-      </c>
-      <c r="F152" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F152" s="4" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G152" s="5" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="153">
@@ -5672,31 +5690,27 @@
       </c>
       <c r="B153" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C153" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D153" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D153" s="6" t="n">
+        <v>3</v>
       </c>
       <c r="E153" s="7" t="inlineStr">
         <is>
-          <t>04/01/2026</t>
-        </is>
-      </c>
-      <c r="F153" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F153" s="8" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G153" s="9" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="154">
@@ -5707,31 +5721,29 @@
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D154" s="2" t="n">
+        <v>4</v>
       </c>
       <c r="E154" s="3" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F154" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G154" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="155">
@@ -5742,31 +5754,29 @@
       </c>
       <c r="B155" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C155" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D155" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D155" s="6" t="n">
+        <v>5</v>
       </c>
       <c r="E155" s="7" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F155" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G155" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="156">
@@ -5777,31 +5787,29 @@
       </c>
       <c r="B156" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-5</t>
         </is>
       </c>
       <c r="C156" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E156" s="3" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F156" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G156" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="157">
@@ -5812,7 +5820,7 @@
       </c>
       <c r="B157" s="6" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C157" s="6" t="inlineStr">
@@ -5822,12 +5830,12 @@
       </c>
       <c r="D157" s="6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E157" s="7" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F157" s="8" t="inlineStr">
@@ -5847,7 +5855,7 @@
       </c>
       <c r="B158" s="2" t="inlineStr">
         <is>
-          <t>B1-4</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C158" s="2" t="inlineStr">
@@ -5857,12 +5865,12 @@
       </c>
       <c r="D158" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr">
         <is>
-          <t>21/01/2026</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F158" s="4" t="inlineStr">
@@ -5882,29 +5890,31 @@
       </c>
       <c r="B159" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C159" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D159" s="6" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D159" s="6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
       </c>
       <c r="E159" s="7" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>14/12/2025</t>
         </is>
       </c>
       <c r="F159" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G159" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160">
@@ -5915,29 +5925,31 @@
       </c>
       <c r="B160" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C160" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
       </c>
       <c r="E160" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>21/12/2025</t>
         </is>
       </c>
       <c r="F160" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G160" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161">
@@ -5948,29 +5960,31 @@
       </c>
       <c r="B161" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C161" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D161" s="6" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D161" s="6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
       </c>
       <c r="E161" s="7" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>22/12/2025</t>
         </is>
       </c>
       <c r="F161" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G161" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162">
@@ -5981,27 +5995,31 @@
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D162" s="2" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E162" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F162" s="4" t="n">
-        <v>0.3541666666666667</v>
+          <t>28/12/2025</t>
+        </is>
+      </c>
+      <c r="F162" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G162" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163">
@@ -6012,27 +6030,31 @@
       </c>
       <c r="B163" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C163" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D163" s="6" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D163" s="6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E163" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F163" s="8" t="n">
-        <v>0.4166666666666667</v>
+          <t>29/12/2025</t>
+        </is>
+      </c>
+      <c r="F163" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G163" s="9" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164">
@@ -6043,29 +6065,31 @@
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D164" s="2" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D164" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E164" s="3" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>04/01/2026</t>
         </is>
       </c>
       <c r="F164" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G164" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165">
@@ -6076,29 +6100,31 @@
       </c>
       <c r="B165" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C165" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D165" s="6" t="n">
-        <v>7</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D165" s="6" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E165" s="7" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>05/01/2026</t>
         </is>
       </c>
       <c r="F165" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G165" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="166">
@@ -6109,29 +6135,31 @@
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="n">
-        <v>8</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="E166" s="3" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>13/01/2026</t>
         </is>
       </c>
       <c r="F166" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G166" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167">
@@ -6142,7 +6170,7 @@
       </c>
       <c r="B167" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C167" s="6" t="inlineStr">
@@ -6152,12 +6180,12 @@
       </c>
       <c r="D167" s="6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="E167" s="7" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>14/01/2026</t>
         </is>
       </c>
       <c r="F167" s="8" t="inlineStr">
@@ -6177,7 +6205,7 @@
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -6187,12 +6215,12 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>20/01/2026</t>
         </is>
       </c>
       <c r="F168" s="4" t="inlineStr">
@@ -6212,7 +6240,7 @@
       </c>
       <c r="B169" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C169" s="6" t="inlineStr">
@@ -6222,12 +6250,12 @@
       </c>
       <c r="D169" s="6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E169" s="7" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>21/01/2026</t>
         </is>
       </c>
       <c r="F169" s="8" t="inlineStr">
@@ -6247,31 +6275,29 @@
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D170" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D170" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E170" s="3" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F170" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G170" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="171">
@@ -6282,31 +6308,27 @@
       </c>
       <c r="B171" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C171" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D171" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D171" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E171" s="7" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
-        </is>
-      </c>
-      <c r="F171" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F171" s="8" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G171" s="9" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="172">
@@ -6317,31 +6339,27 @@
       </c>
       <c r="B172" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C172" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D172" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E172" s="3" t="inlineStr">
         <is>
-          <t>22/12/2025</t>
-        </is>
-      </c>
-      <c r="F172" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F172" s="4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G172" s="5" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="173">
@@ -6352,31 +6370,29 @@
       </c>
       <c r="B173" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C173" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D173" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D173" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E173" s="7" t="inlineStr">
         <is>
-          <t>28/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F173" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G173" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="174">
@@ -6387,31 +6403,29 @@
       </c>
       <c r="B174" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C174" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E174" s="3" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F174" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G174" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="175">
@@ -6422,31 +6436,29 @@
       </c>
       <c r="B175" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-6</t>
         </is>
       </c>
       <c r="C175" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D175" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D175" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="E175" s="7" t="inlineStr">
         <is>
-          <t>04/01/2026</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F175" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G175" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="176">
@@ -6457,7 +6469,7 @@
       </c>
       <c r="B176" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C176" s="2" t="inlineStr">
@@ -6467,12 +6479,12 @@
       </c>
       <c r="D176" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F176" s="4" t="inlineStr">
@@ -6492,7 +6504,7 @@
       </c>
       <c r="B177" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C177" s="6" t="inlineStr">
@@ -6502,12 +6514,12 @@
       </c>
       <c r="D177" s="6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E177" s="7" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F177" s="8" t="inlineStr">
@@ -6527,7 +6539,7 @@
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
@@ -6537,12 +6549,12 @@
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="F178" s="4" t="inlineStr">
@@ -6562,7 +6574,7 @@
       </c>
       <c r="B179" s="6" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C179" s="6" t="inlineStr">
@@ -6572,12 +6584,12 @@
       </c>
       <c r="D179" s="6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E179" s="7" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="F179" s="8" t="inlineStr">
@@ -6597,7 +6609,7 @@
       </c>
       <c r="B180" s="2" t="inlineStr">
         <is>
-          <t>B1-5</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C180" s="2" t="inlineStr">
@@ -6607,12 +6619,12 @@
       </c>
       <c r="D180" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr">
         <is>
-          <t>21/01/2026</t>
+          <t>23/12/2025</t>
         </is>
       </c>
       <c r="F180" s="4" t="inlineStr">
@@ -6632,29 +6644,31 @@
       </c>
       <c r="B181" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C181" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D181" s="6" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D181" s="6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
       </c>
       <c r="E181" s="7" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="F181" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G181" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="182">
@@ -6665,29 +6679,31 @@
       </c>
       <c r="B182" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C182" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
       </c>
       <c r="E182" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>30/12/2025</t>
         </is>
       </c>
       <c r="F182" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G182" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="183">
@@ -6698,29 +6714,31 @@
       </c>
       <c r="B183" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C183" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D183" s="6" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D183" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E183" s="7" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="F183" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G183" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="184">
@@ -6731,27 +6749,31 @@
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D184" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E184" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F184" s="4" t="n">
-        <v>0.3541666666666667</v>
+          <t>06/01/2026</t>
+        </is>
+      </c>
+      <c r="F184" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G184" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="185">
@@ -6762,27 +6784,31 @@
       </c>
       <c r="B185" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C185" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D185" s="6" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D185" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="E185" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F185" s="8" t="n">
-        <v>0.4166666666666667</v>
+          <t>07/01/2026</t>
+        </is>
+      </c>
+      <c r="F185" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G185" s="9" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="186">
@@ -6793,29 +6819,31 @@
       </c>
       <c r="B186" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C186" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E186" s="3" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>11/01/2026</t>
         </is>
       </c>
       <c r="F186" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G186" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="187">
@@ -6826,29 +6854,31 @@
       </c>
       <c r="B187" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C187" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D187" s="6" t="n">
-        <v>7</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D187" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E187" s="7" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>12/01/2026</t>
         </is>
       </c>
       <c r="F187" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G187" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="188">
@@ -6859,29 +6889,31 @@
       </c>
       <c r="B188" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C188" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D188" s="2" t="n">
-        <v>8</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E188" s="3" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>18/01/2026</t>
         </is>
       </c>
       <c r="F188" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G188" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="189">
@@ -6892,7 +6924,7 @@
       </c>
       <c r="B189" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C189" s="6" t="inlineStr">
@@ -6900,14 +6932,12 @@
           <t>general surgery</t>
         </is>
       </c>
-      <c r="D189" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="D189" s="6" t="n">
+        <v>14</v>
       </c>
       <c r="E189" s="7" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>19/01/2026</t>
         </is>
       </c>
       <c r="F189" s="8" t="inlineStr">
@@ -6927,31 +6957,29 @@
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D190" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D190" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E190" s="3" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F190" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G190" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="191">
@@ -6962,31 +6990,27 @@
       </c>
       <c r="B191" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C191" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D191" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D191" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E191" s="7" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
-        </is>
-      </c>
-      <c r="F191" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F191" s="8" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G191" s="9" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192">
@@ -6997,31 +7021,27 @@
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D192" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E192" s="3" t="inlineStr">
         <is>
-          <t>14/12/2025</t>
-        </is>
-      </c>
-      <c r="F192" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F192" s="4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G192" s="5" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="193">
@@ -7032,31 +7052,29 @@
       </c>
       <c r="B193" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C193" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D193" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D193" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E193" s="7" t="inlineStr">
         <is>
-          <t>21/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F193" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G193" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="194">
@@ -7067,31 +7085,29 @@
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D194" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D194" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E194" s="3" t="inlineStr">
         <is>
-          <t>22/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F194" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G194" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="195">
@@ -7102,31 +7118,29 @@
       </c>
       <c r="B195" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-7</t>
         </is>
       </c>
       <c r="C195" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D195" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D195" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="E195" s="7" t="inlineStr">
         <is>
-          <t>28/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F195" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G195" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="196">
@@ -7137,7 +7151,7 @@
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -7147,12 +7161,12 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr">
         <is>
-          <t>29/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F196" s="4" t="inlineStr">
@@ -7172,7 +7186,7 @@
       </c>
       <c r="B197" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C197" s="6" t="inlineStr">
@@ -7182,12 +7196,12 @@
       </c>
       <c r="D197" s="6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E197" s="7" t="inlineStr">
         <is>
-          <t>04/01/2026</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F197" s="8" t="inlineStr">
@@ -7207,7 +7221,7 @@
       </c>
       <c r="B198" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C198" s="2" t="inlineStr">
@@ -7217,12 +7231,12 @@
       </c>
       <c r="D198" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr">
         <is>
-          <t>05/01/2026</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="F198" s="4" t="inlineStr">
@@ -7242,7 +7256,7 @@
       </c>
       <c r="B199" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C199" s="6" t="inlineStr">
@@ -7252,12 +7266,12 @@
       </c>
       <c r="D199" s="6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E199" s="7" t="inlineStr">
         <is>
-          <t>13/01/2026</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="F199" s="8" t="inlineStr">
@@ -7277,7 +7291,7 @@
       </c>
       <c r="B200" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C200" s="2" t="inlineStr">
@@ -7287,12 +7301,12 @@
       </c>
       <c r="D200" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E200" s="3" t="inlineStr">
         <is>
-          <t>14/01/2026</t>
+          <t>23/12/2025</t>
         </is>
       </c>
       <c r="F200" s="4" t="inlineStr">
@@ -7312,7 +7326,7 @@
       </c>
       <c r="B201" s="6" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C201" s="6" t="inlineStr">
@@ -7322,12 +7336,12 @@
       </c>
       <c r="D201" s="6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E201" s="7" t="inlineStr">
         <is>
-          <t>20/01/2026</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="F201" s="8" t="inlineStr">
@@ -7347,7 +7361,7 @@
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>B1-6</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
@@ -7357,12 +7371,12 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr">
         <is>
-          <t>21/01/2026</t>
+          <t>30/12/2025</t>
         </is>
       </c>
       <c r="F202" s="4" t="inlineStr">
@@ -7382,29 +7396,31 @@
       </c>
       <c r="B203" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C203" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D203" s="6" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D203" s="6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="E203" s="7" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="F203" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G203" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="204">
@@ -7415,29 +7431,31 @@
       </c>
       <c r="B204" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C204" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
       </c>
       <c r="E204" s="3" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="F204" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G204" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="205">
@@ -7448,29 +7466,31 @@
       </c>
       <c r="B205" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C205" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D205" s="6" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D205" s="6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
       </c>
       <c r="E205" s="7" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>07/01/2026</t>
         </is>
       </c>
       <c r="F205" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G205" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="206">
@@ -7481,27 +7501,31 @@
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="n">
-        <v>4</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D206" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E206" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F206" s="4" t="n">
-        <v>0.3541666666666667</v>
+          <t>11/01/2026</t>
+        </is>
+      </c>
+      <c r="F206" s="4" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G206" s="5" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="207">
@@ -7512,27 +7536,31 @@
       </c>
       <c r="B207" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C207" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D207" s="6" t="n">
-        <v>5</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D207" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E207" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F207" s="8" t="n">
-        <v>0.4166666666666667</v>
+          <t>12/01/2026</t>
+        </is>
+      </c>
+      <c r="F207" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G207" s="9" t="n">
-        <v>120</v>
+        <v>180</v>
       </c>
     </row>
     <row r="208">
@@ -7543,29 +7571,31 @@
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D208" s="2" t="n">
-        <v>6</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E208" s="3" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
+          <t>18/01/2026</t>
         </is>
       </c>
       <c r="F208" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G208" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="209">
@@ -7576,29 +7606,29 @@
       </c>
       <c r="B209" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C209" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
+          <t>general surgery</t>
         </is>
       </c>
       <c r="D209" s="6" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E209" s="7" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
+          <t>19/01/2026</t>
         </is>
       </c>
       <c r="F209" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G209" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="210">
@@ -7609,7 +7639,7 @@
       </c>
       <c r="B210" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C210" s="2" t="inlineStr">
@@ -7618,11 +7648,11 @@
         </is>
       </c>
       <c r="D210" s="2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E210" s="3" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>13/12/2025</t>
         </is>
       </c>
       <c r="F210" s="4" t="inlineStr">
@@ -7642,31 +7672,27 @@
       </c>
       <c r="B211" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C211" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D211" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D211" s="6" t="n">
+        <v>2</v>
       </c>
       <c r="E211" s="7" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
-        </is>
-      </c>
-      <c r="F211" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F211" s="8" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G211" s="9" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="212">
@@ -7677,31 +7703,27 @@
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="n">
+        <v>3</v>
       </c>
       <c r="E212" s="3" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
-        </is>
-      </c>
-      <c r="F212" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F212" s="4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G212" s="5" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
     </row>
     <row r="213">
@@ -7712,31 +7734,29 @@
       </c>
       <c r="B213" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C213" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D213" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D213" s="6" t="n">
+        <v>4</v>
       </c>
       <c r="E213" s="7" t="inlineStr">
         <is>
-          <t>09/12/2025</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F213" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G213" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="214">
@@ -7747,31 +7767,29 @@
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D214" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E214" s="3" t="inlineStr">
         <is>
-          <t>16/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F214" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G214" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="215">
@@ -7782,31 +7800,29 @@
       </c>
       <c r="B215" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-8</t>
         </is>
       </c>
       <c r="C215" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D215" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D215" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="E215" s="7" t="inlineStr">
         <is>
-          <t>17/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F215" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G215" s="9" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="216">
@@ -7817,7 +7833,7 @@
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
@@ -7827,12 +7843,12 @@
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr">
         <is>
-          <t>23/12/2025</t>
+          <t>07/12/2025</t>
         </is>
       </c>
       <c r="F216" s="4" t="inlineStr">
@@ -7852,7 +7868,7 @@
       </c>
       <c r="B217" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C217" s="6" t="inlineStr">
@@ -7862,12 +7878,12 @@
       </c>
       <c r="D217" s="6" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E217" s="7" t="inlineStr">
         <is>
-          <t>24/12/2025</t>
+          <t>08/12/2025</t>
         </is>
       </c>
       <c r="F217" s="8" t="inlineStr">
@@ -7887,7 +7903,7 @@
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
@@ -7897,12 +7913,12 @@
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr">
         <is>
-          <t>30/12/2025</t>
+          <t>16/12/2025</t>
         </is>
       </c>
       <c r="F218" s="4" t="inlineStr">
@@ -7922,7 +7938,7 @@
       </c>
       <c r="B219" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C219" s="6" t="inlineStr">
@@ -7932,12 +7948,12 @@
       </c>
       <c r="D219" s="6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E219" s="7" t="inlineStr">
         <is>
-          <t>31/12/2025</t>
+          <t>17/12/2025</t>
         </is>
       </c>
       <c r="F219" s="8" t="inlineStr">
@@ -7957,7 +7973,7 @@
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
@@ -7967,12 +7983,12 @@
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr">
         <is>
-          <t>06/01/2026</t>
+          <t>23/12/2025</t>
         </is>
       </c>
       <c r="F220" s="4" t="inlineStr">
@@ -7992,7 +8008,7 @@
       </c>
       <c r="B221" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C221" s="6" t="inlineStr">
@@ -8002,12 +8018,12 @@
       </c>
       <c r="D221" s="6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E221" s="7" t="inlineStr">
         <is>
-          <t>07/01/2026</t>
+          <t>24/12/2025</t>
         </is>
       </c>
       <c r="F221" s="8" t="inlineStr">
@@ -8027,7 +8043,7 @@
       </c>
       <c r="B222" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C222" s="2" t="inlineStr">
@@ -8037,12 +8053,12 @@
       </c>
       <c r="D222" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr">
         <is>
-          <t>11/01/2026</t>
+          <t>30/12/2025</t>
         </is>
       </c>
       <c r="F222" s="4" t="inlineStr">
@@ -8062,7 +8078,7 @@
       </c>
       <c r="B223" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C223" s="6" t="inlineStr">
@@ -8072,12 +8088,12 @@
       </c>
       <c r="D223" s="6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E223" s="7" t="inlineStr">
         <is>
-          <t>12/01/2026</t>
+          <t>31/12/2025</t>
         </is>
       </c>
       <c r="F223" s="8" t="inlineStr">
@@ -8097,7 +8113,7 @@
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
@@ -8107,12 +8123,12 @@
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E224" s="3" t="inlineStr">
         <is>
-          <t>18/01/2026</t>
+          <t>06/01/2026</t>
         </is>
       </c>
       <c r="F224" s="4" t="inlineStr">
@@ -8132,7 +8148,7 @@
       </c>
       <c r="B225" s="6" t="inlineStr">
         <is>
-          <t>B1-7</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C225" s="6" t="inlineStr">
@@ -8142,12 +8158,12 @@
       </c>
       <c r="D225" s="6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E225" s="7" t="inlineStr">
         <is>
-          <t>19/01/2026</t>
+          <t>07/01/2026</t>
         </is>
       </c>
       <c r="F225" s="8" t="inlineStr">
@@ -8167,29 +8183,31 @@
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D226" s="2" t="n">
-        <v>1</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
       </c>
       <c r="E226" s="3" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>11/01/2026</t>
         </is>
       </c>
       <c r="F226" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G226" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="227">
@@ -8200,29 +8218,31 @@
       </c>
       <c r="B227" s="6" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C227" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D227" s="6" t="n">
-        <v>2</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D227" s="6" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
       <c r="E227" s="7" t="inlineStr">
         <is>
-          <t>13/12/2025</t>
+          <t>12/01/2026</t>
         </is>
       </c>
       <c r="F227" s="8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G227" s="9" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="228">
@@ -8233,29 +8253,31 @@
       </c>
       <c r="B228" s="2" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C228" s="2" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="n">
-        <v>3</v>
+          <t>general surgery</t>
+        </is>
+      </c>
+      <c r="D228" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
       </c>
       <c r="E228" s="3" t="inlineStr">
         <is>
-          <t>20/12/2025</t>
+          <t>18/01/2026</t>
         </is>
       </c>
       <c r="F228" s="4" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>12:00:00</t>
         </is>
       </c>
       <c r="G228" s="5" t="n">
-        <v>360</v>
+        <v>180</v>
       </c>
     </row>
     <row r="229">
@@ -8266,27 +8288,29 @@
       </c>
       <c r="B229" s="6" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C229" s="6" t="inlineStr">
         <is>
-          <t>surgery seminar/slide</t>
+          <t>general surgery</t>
         </is>
       </c>
       <c r="D229" s="6" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="E229" s="7" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F229" s="8" t="n">
-        <v>0.3541666666666667</v>
+          <t>19/01/2026</t>
+        </is>
+      </c>
+      <c r="F229" s="8" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
       </c>
       <c r="G229" s="9" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="230">
@@ -8297,7 +8321,7 @@
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
@@ -8306,18 +8330,20 @@
         </is>
       </c>
       <c r="D230" s="2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E230" s="3" t="inlineStr">
         <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F230" s="4" t="n">
-        <v>0.4166666666666667</v>
+          <t>13/12/2025</t>
+        </is>
+      </c>
+      <c r="F230" s="4" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
       </c>
       <c r="G230" s="5" t="n">
-        <v>120</v>
+        <v>360</v>
       </c>
     </row>
     <row r="231">
@@ -8328,7 +8354,7 @@
       </c>
       <c r="B231" s="6" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C231" s="6" t="inlineStr">
@@ -8337,20 +8363,18 @@
         </is>
       </c>
       <c r="D231" s="6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E231" s="7" t="inlineStr">
         <is>
-          <t>03/01/2026</t>
-        </is>
-      </c>
-      <c r="F231" s="8" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F231" s="8" t="n">
+        <v>0.3541666666666667</v>
       </c>
       <c r="G231" s="9" t="n">
-        <v>360</v>
+        <v>90</v>
       </c>
     </row>
     <row r="232">
@@ -8361,7 +8385,7 @@
       </c>
       <c r="B232" s="2" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C232" s="2" t="inlineStr">
@@ -8370,20 +8394,18 @@
         </is>
       </c>
       <c r="D232" s="2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E232" s="3" t="inlineStr">
         <is>
-          <t>10/01/2026</t>
-        </is>
-      </c>
-      <c r="F232" s="4" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
+          <t>27/12/2025</t>
+        </is>
+      </c>
+      <c r="F232" s="4" t="n">
+        <v>0.4166666666666667</v>
       </c>
       <c r="G232" s="5" t="n">
-        <v>360</v>
+        <v>120</v>
       </c>
     </row>
     <row r="233">
@@ -8394,7 +8416,7 @@
       </c>
       <c r="B233" s="6" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C233" s="6" t="inlineStr">
@@ -8403,11 +8425,11 @@
         </is>
       </c>
       <c r="D233" s="6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E233" s="7" t="inlineStr">
         <is>
-          <t>17/01/2026</t>
+          <t>03/01/2026</t>
         </is>
       </c>
       <c r="F233" s="8" t="inlineStr">
@@ -8427,31 +8449,29 @@
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>5</v>
       </c>
       <c r="E234" s="3" t="inlineStr">
         <is>
-          <t>07/12/2025</t>
+          <t>10/01/2026</t>
         </is>
       </c>
       <c r="F234" s="4" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G234" s="5" t="n">
-        <v>180</v>
+        <v>360</v>
       </c>
     </row>
     <row r="235">
@@ -8462,1271 +8482,29 @@
       </c>
       <c r="B235" s="6" t="inlineStr">
         <is>
-          <t>B1-8</t>
+          <t>B1-9</t>
         </is>
       </c>
       <c r="C235" s="6" t="inlineStr">
         <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D235" s="6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>surgery seminar/slide</t>
+        </is>
+      </c>
+      <c r="D235" s="6" t="n">
+        <v>6</v>
       </c>
       <c r="E235" s="7" t="inlineStr">
         <is>
-          <t>08/12/2025</t>
+          <t>17/01/2026</t>
         </is>
       </c>
       <c r="F235" s="8" t="inlineStr">
         <is>
-          <t>12:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="G235" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B236" s="2" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C236" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D236" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E236" s="3" t="inlineStr">
-        <is>
-          <t>09/12/2025</t>
-        </is>
-      </c>
-      <c r="F236" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G236" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B237" s="6" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C237" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D237" s="6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E237" s="7" t="inlineStr">
-        <is>
-          <t>16/12/2025</t>
-        </is>
-      </c>
-      <c r="F237" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G237" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E238" s="3" t="inlineStr">
-        <is>
-          <t>17/12/2025</t>
-        </is>
-      </c>
-      <c r="F238" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G238" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B239" s="6" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C239" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D239" s="6" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E239" s="7" t="inlineStr">
-        <is>
-          <t>23/12/2025</t>
-        </is>
-      </c>
-      <c r="F239" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G239" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B240" s="2" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C240" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D240" s="2" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E240" s="3" t="inlineStr">
-        <is>
-          <t>24/12/2025</t>
-        </is>
-      </c>
-      <c r="F240" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G240" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B241" s="6" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C241" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D241" s="6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E241" s="7" t="inlineStr">
-        <is>
-          <t>30/12/2025</t>
-        </is>
-      </c>
-      <c r="F241" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G241" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B242" s="2" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C242" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D242" s="2" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E242" s="3" t="inlineStr">
-        <is>
-          <t>31/12/2025</t>
-        </is>
-      </c>
-      <c r="F242" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G242" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B243" s="6" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C243" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D243" s="6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E243" s="7" t="inlineStr">
-        <is>
-          <t>06/01/2026</t>
-        </is>
-      </c>
-      <c r="F243" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G243" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B244" s="2" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C244" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D244" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr">
-        <is>
-          <t>07/01/2026</t>
-        </is>
-      </c>
-      <c r="F244" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G244" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="A245" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B245" s="6" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C245" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D245" s="6" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E245" s="7" t="inlineStr">
-        <is>
-          <t>11/01/2026</t>
-        </is>
-      </c>
-      <c r="F245" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G245" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B246" s="2" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C246" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D246" s="2" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E246" s="3" t="inlineStr">
-        <is>
-          <t>12/01/2026</t>
-        </is>
-      </c>
-      <c r="F246" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G246" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B247" s="6" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C247" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D247" s="6" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E247" s="7" t="inlineStr">
-        <is>
-          <t>18/01/2026</t>
-        </is>
-      </c>
-      <c r="F247" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G247" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B248" s="2" t="inlineStr">
-        <is>
-          <t>B1-8</t>
-        </is>
-      </c>
-      <c r="C248" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D248" s="2" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E248" s="3" t="inlineStr">
-        <is>
-          <t>19/01/2026</t>
-        </is>
-      </c>
-      <c r="F248" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G248" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="A249" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B249" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C249" s="6" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D249" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E249" s="7" t="inlineStr">
-        <is>
-          <t>06/12/2025</t>
-        </is>
-      </c>
-      <c r="F249" s="8" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G249" s="9" t="n">
         <v>360</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D250" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E250" s="3" t="inlineStr">
-        <is>
-          <t>13/12/2025</t>
-        </is>
-      </c>
-      <c r="F250" s="4" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G250" s="5" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B251" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C251" s="6" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D251" s="6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E251" s="7" t="inlineStr">
-        <is>
-          <t>20/12/2025</t>
-        </is>
-      </c>
-      <c r="F251" s="8" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G251" s="9" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E252" s="3" t="inlineStr">
-        <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F252" s="4" t="n">
-        <v>0.3541666666666667</v>
-      </c>
-      <c r="G252" s="5" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B253" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C253" s="6" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D253" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E253" s="7" t="inlineStr">
-        <is>
-          <t>27/12/2025</t>
-        </is>
-      </c>
-      <c r="F253" s="8" t="n">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="G253" s="9" t="n">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="A254" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B254" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C254" s="2" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D254" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E254" s="3" t="inlineStr">
-        <is>
-          <t>03/01/2026</t>
-        </is>
-      </c>
-      <c r="F254" s="4" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G254" s="5" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="A255" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B255" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C255" s="6" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D255" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="E255" s="7" t="inlineStr">
-        <is>
-          <t>10/01/2026</t>
-        </is>
-      </c>
-      <c r="F255" s="8" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G255" s="9" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B256" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C256" s="2" t="inlineStr">
-        <is>
-          <t>surgery seminar/slide</t>
-        </is>
-      </c>
-      <c r="D256" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E256" s="3" t="inlineStr">
-        <is>
-          <t>17/01/2026</t>
-        </is>
-      </c>
-      <c r="F256" s="4" t="inlineStr">
-        <is>
-          <t>08:30:00</t>
-        </is>
-      </c>
-      <c r="G256" s="5" t="n">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B257" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C257" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D257" s="6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E257" s="7" t="inlineStr">
-        <is>
-          <t>07/12/2025</t>
-        </is>
-      </c>
-      <c r="F257" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G257" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B258" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C258" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D258" s="2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E258" s="3" t="inlineStr">
-        <is>
-          <t>08/12/2025</t>
-        </is>
-      </c>
-      <c r="F258" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G258" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B259" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C259" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D259" s="6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E259" s="7" t="inlineStr">
-        <is>
-          <t>09/12/2025</t>
-        </is>
-      </c>
-      <c r="F259" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G259" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B260" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C260" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D260" s="2" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="E260" s="3" t="inlineStr">
-        <is>
-          <t>16/12/2025</t>
-        </is>
-      </c>
-      <c r="F260" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G260" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B261" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C261" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D261" s="6" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="E261" s="7" t="inlineStr">
-        <is>
-          <t>17/12/2025</t>
-        </is>
-      </c>
-      <c r="F261" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G261" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B262" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C262" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D262" s="2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="E262" s="3" t="inlineStr">
-        <is>
-          <t>23/12/2025</t>
-        </is>
-      </c>
-      <c r="F262" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G262" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B263" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C263" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D263" s="6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="E263" s="7" t="inlineStr">
-        <is>
-          <t>24/12/2025</t>
-        </is>
-      </c>
-      <c r="F263" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G263" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B264" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D264" s="2" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E264" s="3" t="inlineStr">
-        <is>
-          <t>30/12/2025</t>
-        </is>
-      </c>
-      <c r="F264" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G264" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B265" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C265" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D265" s="6" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="E265" s="7" t="inlineStr">
-        <is>
-          <t>31/12/2025</t>
-        </is>
-      </c>
-      <c r="F265" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G265" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="E266" s="3" t="inlineStr">
-        <is>
-          <t>06/01/2026</t>
-        </is>
-      </c>
-      <c r="F266" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G266" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B267" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C267" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D267" s="6" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="E267" s="7" t="inlineStr">
-        <is>
-          <t>07/01/2026</t>
-        </is>
-      </c>
-      <c r="F267" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G267" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="E268" s="3" t="inlineStr">
-        <is>
-          <t>11/01/2026</t>
-        </is>
-      </c>
-      <c r="F268" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G268" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B269" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C269" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D269" s="6" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="E269" s="7" t="inlineStr">
-        <is>
-          <t>12/01/2026</t>
-        </is>
-      </c>
-      <c r="F269" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G269" s="9" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B270" s="2" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C270" s="2" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D270" s="2" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="E270" s="3" t="inlineStr">
-        <is>
-          <t>18/01/2026</t>
-        </is>
-      </c>
-      <c r="F270" s="4" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G270" s="5" t="n">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="6" t="inlineStr">
-        <is>
-          <t>Year 5</t>
-        </is>
-      </c>
-      <c r="B271" s="6" t="inlineStr">
-        <is>
-          <t>B1-9</t>
-        </is>
-      </c>
-      <c r="C271" s="6" t="inlineStr">
-        <is>
-          <t>general surgery</t>
-        </is>
-      </c>
-      <c r="D271" s="6" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="E271" s="7" t="inlineStr">
-        <is>
-          <t>19/01/2026</t>
-        </is>
-      </c>
-      <c r="F271" s="8" t="inlineStr">
-        <is>
-          <t>12:00:00</t>
-        </is>
-      </c>
-      <c r="G271" s="9" t="n">
-        <v>180</v>
       </c>
     </row>
   </sheetData>
